--- a/Media/NFLX.xlsx
+++ b/Media/NFLX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameel/Library/CloudStorage/Dropbox/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13387BD-AFFC-4942-BA8B-38DB4CC86F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC985C4C-C16A-2D4A-B855-AA7D64180850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="660" windowWidth="31560" windowHeight="24380" xr2:uid="{5E11661E-A77E-1640-8F75-A4797723CAFF}"/>
+    <workbookView xWindow="13080" yWindow="660" windowWidth="31560" windowHeight="24380" activeTab="1" xr2:uid="{5E11661E-A77E-1640-8F75-A4797723CAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="157">
   <si>
     <t>P</t>
   </si>
@@ -579,19 +579,26 @@
   </si>
   <si>
     <t>how rev grow  vs arpu (ads, tiering, sharing crackdown)</t>
+  </si>
+  <si>
+    <t>BVPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross profit to Content Efficiency </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -698,7 +705,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -729,6 +736,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -760,7 +768,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -810,7 +818,7 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1172,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6F2AC4-AD35-B948-83BC-3C712C792D57}">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1496,13 +1504,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F050DE-6A57-5442-A64A-828AEE29071D}">
-  <dimension ref="B1:IK109"/>
+  <dimension ref="B1:IK110"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W22" sqref="W22"/>
+      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5368,6 +5376,19 @@
       </c>
     </row>
     <row r="26" spans="2:245" ht="5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:245" x14ac:dyDescent="0.2">
+      <c r="J27" s="1">
+        <f>SUM(G7:J7)-SUM(G8:J8)</f>
+        <v>17962.502499999995</v>
+      </c>
+      <c r="AU27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV27" s="1">
+        <f>+L55 / AV22</f>
+        <v>58.720527062824203</v>
+      </c>
+    </row>
     <row r="28" spans="2:245" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>151</v>
@@ -5473,2349 +5494,2400 @@
         <v>0.47909806660463844</v>
       </c>
     </row>
-    <row r="29" spans="2:245" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:245" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24">
+        <f>(SUM(C7:F7)-SUM(C8:F8) ) / F68</f>
+        <v>0.44247596883396761</v>
+      </c>
+      <c r="G29" s="24">
+        <f>(SUM(D7:G7)-SUM(D8:G8) ) / G68</f>
+        <v>0.47512382311975504</v>
+      </c>
+      <c r="H29" s="24">
+        <f>(SUM(E7:H7)-SUM(E8:H8) ) / H68</f>
+        <v>0.49846766197826298</v>
+      </c>
+      <c r="I29" s="24">
+        <f>(SUM(F7:I7)-SUM(F8:I8) ) / I68</f>
+        <v>0.52862443093915712</v>
+      </c>
+      <c r="J29" s="24">
+        <f>(SUM(G7:J7)-SUM(G8:J8) ) / J68</f>
+        <v>0.55350199624299679</v>
+      </c>
+      <c r="K29" s="24">
+        <f>(SUM(H7:K7)-SUM(H8:K8) ) / K68</f>
+        <v>0.58827390568642723</v>
+      </c>
+      <c r="L29" s="24">
+        <f>(SUM(I7:L7)-SUM(I8:L8) ) / L68</f>
+        <v>0.63003612657814601</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+    </row>
+    <row r="30" spans="2:245" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="15">
-        <f t="shared" ref="C29:N29" si="43">+C12/C7</f>
+      <c r="C30" s="15">
+        <f t="shared" ref="C30:N30" si="43">+C12/C7</f>
         <v>0.21004917844176504</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D30" s="15">
         <f t="shared" si="43"/>
         <v>0.22317281360487418</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <f t="shared" si="43"/>
         <v>0.22435828692943818</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F30" s="15">
         <f t="shared" si="43"/>
         <v>0.16938057756153888</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G30" s="15">
         <f t="shared" si="43"/>
         <v>0.28094027601692112</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H30" s="15">
         <f t="shared" si="43"/>
         <v>0.27228293673915804</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I30" s="15">
         <f t="shared" si="43"/>
         <v>0.29613892654057827</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J30" s="15">
         <f t="shared" si="43"/>
         <v>0.22180876451292383</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K30" s="15">
         <f t="shared" si="43"/>
         <v>0.31746772039043514</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L30" s="15">
         <f t="shared" si="43"/>
         <v>0.34070242290800595</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M30" s="15">
         <f t="shared" si="43"/>
         <v>0.27136233900638373</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N30" s="15">
         <f t="shared" si="43"/>
         <v>0.27136233900638362</v>
       </c>
-      <c r="AG29" s="5">
-        <f t="shared" ref="AG29:AR29" si="44">+AG12/AG7</f>
+      <c r="AG30" s="5">
+        <f t="shared" ref="AG30:AR30" si="44">+AG12/AG7</f>
         <v>0.20620768485358951</v>
       </c>
-      <c r="AH29" s="5">
+      <c r="AH30" s="5">
         <f t="shared" si="44"/>
         <v>0.26711170093694969</v>
       </c>
-      <c r="AI29" s="8">
+      <c r="AI30" s="8">
         <f t="shared" si="44"/>
         <v>0.2993596793484789</v>
       </c>
-      <c r="AJ29" s="8">
+      <c r="AJ30" s="8">
         <f t="shared" si="44"/>
         <v>0.29935967934847885</v>
       </c>
-      <c r="AK29" s="8">
+      <c r="AK30" s="8">
         <f t="shared" si="44"/>
         <v>0.2993596793484789</v>
       </c>
-      <c r="AL29" s="8">
+      <c r="AL30" s="8">
         <f t="shared" si="44"/>
         <v>0.29935967934847896</v>
       </c>
-      <c r="AM29" s="8">
+      <c r="AM30" s="8">
         <f t="shared" si="44"/>
         <v>0.29935967934847901</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN30" s="8">
         <f t="shared" si="44"/>
         <v>0.2993596793484789</v>
       </c>
-      <c r="AO29" s="8">
+      <c r="AO30" s="8">
         <f t="shared" si="44"/>
         <v>0.29935967934847907</v>
       </c>
-      <c r="AP29" s="8">
+      <c r="AP30" s="8">
         <f t="shared" si="44"/>
         <v>0.2993596793484789</v>
       </c>
-      <c r="AQ29" s="8">
+      <c r="AQ30" s="8">
         <f t="shared" si="44"/>
         <v>0.29935967934847896</v>
       </c>
-      <c r="AR29" s="8">
+      <c r="AR30" s="8">
         <f t="shared" si="44"/>
         <v>0.29935967934847901</v>
       </c>
     </row>
-    <row r="30" spans="2:245" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="21" t="s">
+    <row r="31" spans="2:245" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8"/>
-      <c r="AP30" s="8"/>
-      <c r="AQ30" s="8"/>
-      <c r="AR30" s="8"/>
-    </row>
-    <row r="31" spans="2:245" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="8"/>
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="8"/>
+    </row>
+    <row r="32" spans="2:245" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="8">
-        <f t="shared" ref="C31:L31" si="45">+C8/C$7</f>
+      <c r="C32" s="8">
+        <f t="shared" ref="C32:L32" si="45">+C8/C$7</f>
         <v>0.58857112470582928</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <f t="shared" si="45"/>
         <v>0.57081937014408046</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <f t="shared" si="45"/>
         <v>0.57726289525652363</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <f t="shared" si="45"/>
         <v>0.60088193754546226</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <f t="shared" si="45"/>
         <v>0.53114613614728878</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H32" s="8">
         <f t="shared" si="45"/>
         <v>0.54126741365224051</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I32" s="8">
         <f t="shared" si="45"/>
         <v>0.52112353930698974</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J32" s="8">
         <f t="shared" si="45"/>
         <v>0.56286111368515745</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K32" s="8">
         <f t="shared" si="45"/>
         <v>0.49921714352760715</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L32" s="8">
         <f t="shared" si="45"/>
         <v>0.48065991609837772</v>
       </c>
-      <c r="AG31" s="8">
-        <f t="shared" ref="AG31:AR31" si="46">+AG8/AG$7</f>
+      <c r="AG32" s="8">
+        <f t="shared" ref="AG32:AR32" si="46">+AG8/AG$7</f>
         <v>0.58462160446530476</v>
       </c>
-      <c r="AH31" s="8">
+      <c r="AH32" s="8">
         <f t="shared" si="46"/>
         <v>0.53943442658017215</v>
       </c>
-      <c r="AI31" s="8">
+      <c r="AI32" s="8">
         <f t="shared" si="46"/>
         <v>0.52090193339536162</v>
       </c>
-      <c r="AJ31" s="8">
+      <c r="AJ32" s="8">
         <f t="shared" si="46"/>
         <v>0.52090193339536162</v>
       </c>
-      <c r="AK31" s="8">
+      <c r="AK32" s="8">
         <f t="shared" si="46"/>
         <v>0.52090193339536162</v>
       </c>
-      <c r="AL31" s="8">
+      <c r="AL32" s="8">
         <f t="shared" si="46"/>
         <v>0.52090193339536162</v>
       </c>
-      <c r="AM31" s="8">
+      <c r="AM32" s="8">
         <f t="shared" si="46"/>
         <v>0.52090193339536162</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN32" s="8">
         <f t="shared" si="46"/>
         <v>0.52090193339536162</v>
       </c>
-      <c r="AO31" s="8">
+      <c r="AO32" s="8">
         <f t="shared" si="46"/>
         <v>0.52090193339536162</v>
       </c>
-      <c r="AP31" s="8">
+      <c r="AP32" s="8">
         <f t="shared" si="46"/>
         <v>0.52090193339536162</v>
       </c>
-      <c r="AQ31" s="8">
+      <c r="AQ32" s="8">
         <f t="shared" si="46"/>
         <v>0.52090193339536162</v>
       </c>
-      <c r="AR31" s="8">
+      <c r="AR32" s="8">
         <f t="shared" si="46"/>
         <v>0.52090193339536162</v>
       </c>
     </row>
-    <row r="32" spans="2:245" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+    <row r="33" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="8">
-        <f t="shared" ref="C32:L32" si="47">+C9/C$7</f>
+      <c r="C33" s="8">
+        <f t="shared" ref="C33:L33" si="47">+C9/C$7</f>
         <v>6.8046535056104238E-2</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <f t="shared" si="47"/>
         <v>7.6602533606618339E-2</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <f t="shared" si="47"/>
         <v>6.5412984911143821E-2</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="8">
         <f t="shared" si="47"/>
         <v>0.10377393416036204</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="8">
         <f t="shared" si="47"/>
         <v>6.9830232091556019E-2</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H33" s="8">
         <f t="shared" si="47"/>
         <v>6.7377666379686382E-2</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I33" s="8">
         <f t="shared" si="47"/>
         <v>6.5439738992618915E-2</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J33" s="8">
         <f t="shared" si="47"/>
         <v>9.5271820995502562E-2</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K33" s="8">
         <f t="shared" si="47"/>
         <v>6.5292895123411701E-2</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L33" s="8">
         <f t="shared" si="47"/>
         <v>6.4378943324795379E-2</v>
       </c>
-      <c r="AG32" s="8">
-        <f t="shared" ref="AG32:AR32" si="48">+AG9/AG$7</f>
+      <c r="AG33" s="8">
+        <f t="shared" ref="AG33:AR33" si="48">+AG9/AG$7</f>
         <v>7.8814446879259759E-2</v>
       </c>
-      <c r="AH32" s="8">
+      <c r="AH33" s="8">
         <f t="shared" si="48"/>
         <v>7.4807223046639129E-2</v>
       </c>
-      <c r="AI32" s="8">
+      <c r="AI33" s="8">
         <f t="shared" si="48"/>
         <v>6.4594018921871874E-2</v>
       </c>
-      <c r="AJ32" s="8">
+      <c r="AJ33" s="8">
         <f t="shared" si="48"/>
         <v>6.4594018921871874E-2</v>
       </c>
-      <c r="AK32" s="8">
+      <c r="AK33" s="8">
         <f t="shared" si="48"/>
         <v>6.4594018921871874E-2</v>
       </c>
-      <c r="AL32" s="8">
+      <c r="AL33" s="8">
         <f t="shared" si="48"/>
         <v>6.4594018921871874E-2</v>
       </c>
-      <c r="AM32" s="8">
+      <c r="AM33" s="8">
         <f t="shared" si="48"/>
         <v>6.4594018921871874E-2</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN33" s="8">
         <f t="shared" si="48"/>
         <v>6.4594018921871874E-2</v>
       </c>
-      <c r="AO32" s="8">
+      <c r="AO33" s="8">
         <f t="shared" si="48"/>
         <v>6.4594018921871874E-2</v>
       </c>
-      <c r="AP32" s="8">
+      <c r="AP33" s="8">
         <f t="shared" si="48"/>
         <v>6.4594018921871874E-2</v>
       </c>
-      <c r="AQ32" s="8">
+      <c r="AQ33" s="8">
         <f t="shared" si="48"/>
         <v>6.4594018921871874E-2</v>
       </c>
-      <c r="AR32" s="8">
+      <c r="AR33" s="8">
         <f t="shared" si="48"/>
         <v>6.4594018921871874E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+    <row r="34" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="8">
-        <f t="shared" ref="C33:L33" si="49">+C10/C$7</f>
+      <c r="C34" s="8">
+        <f t="shared" ref="C34:L34" si="49">+C10/C$7</f>
         <v>8.4209366828634377E-2</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <f t="shared" si="49"/>
         <v>8.0366289208128536E-2</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <f t="shared" si="49"/>
         <v>7.6935675795406708E-2</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <f t="shared" si="49"/>
         <v>7.623166993572271E-2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <f t="shared" si="49"/>
         <v>7.4966917241879788E-2</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H34" s="8">
         <f t="shared" si="49"/>
         <v>7.4404324161471899E-2</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I34" s="8">
         <f t="shared" si="49"/>
         <v>7.4817834187964768E-2</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J34" s="8">
         <f t="shared" si="49"/>
         <v>7.5782362459191635E-2</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K34" s="8">
         <f t="shared" si="49"/>
         <v>7.8045957616007355E-2</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L34" s="8">
         <f t="shared" si="49"/>
         <v>7.4435052241296859E-2</v>
       </c>
-      <c r="AF33" s="8">
+      <c r="AF34" s="8">
         <f>+AF10/AF$7</f>
         <v>8.5750239992661834E-2</v>
       </c>
-      <c r="AG33" s="8">
-        <f t="shared" ref="AG33:AR33" si="50">+AG10/AG$7</f>
+      <c r="AG34" s="8">
+        <f t="shared" ref="AG34:AR34" si="50">+AG10/AG$7</f>
         <v>7.9344495883661673E-2</v>
       </c>
-      <c r="AH33" s="8">
+      <c r="AH34" s="8">
         <f t="shared" si="50"/>
         <v>7.5005705307328738E-2</v>
       </c>
-      <c r="AI33" s="8">
+      <c r="AI34" s="8">
         <f t="shared" si="50"/>
         <v>7.5284788114270015E-2</v>
       </c>
-      <c r="AJ33" s="8">
+      <c r="AJ34" s="8">
         <f t="shared" si="50"/>
         <v>7.5284788114270015E-2</v>
       </c>
-      <c r="AK33" s="8">
+      <c r="AK34" s="8">
         <f t="shared" si="50"/>
         <v>7.5284788114270015E-2</v>
       </c>
-      <c r="AL33" s="8">
+      <c r="AL34" s="8">
         <f t="shared" si="50"/>
         <v>7.5284788114270015E-2</v>
       </c>
-      <c r="AM33" s="8">
+      <c r="AM34" s="8">
         <f t="shared" si="50"/>
         <v>7.5284788114270015E-2</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN34" s="8">
         <f t="shared" si="50"/>
         <v>7.5284788114270015E-2</v>
       </c>
-      <c r="AO33" s="8">
+      <c r="AO34" s="8">
         <f t="shared" si="50"/>
         <v>7.5284788114270015E-2</v>
       </c>
-      <c r="AP33" s="8">
+      <c r="AP34" s="8">
         <f t="shared" si="50"/>
         <v>7.5284788114270015E-2</v>
       </c>
-      <c r="AQ33" s="8">
+      <c r="AQ34" s="8">
         <f t="shared" si="50"/>
         <v>7.5284788114270015E-2</v>
       </c>
-      <c r="AR33" s="8">
+      <c r="AR34" s="8">
         <f t="shared" si="50"/>
         <v>7.5284788114270015E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
+    <row r="35" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="8">
-        <f t="shared" ref="C34:L34" si="51">+C11/C$7</f>
+      <c r="C35" s="8">
+        <f t="shared" ref="C35:L35" si="51">+C11/C$7</f>
         <v>4.9123794967667098E-2</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <f t="shared" si="51"/>
         <v>4.9038993436298479E-2</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <f t="shared" si="51"/>
         <v>5.6030157107487676E-2</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F35" s="8">
         <f t="shared" si="51"/>
         <v>4.9731880796913784E-2</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <f t="shared" si="51"/>
         <v>4.3116438502354214E-2</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H35" s="8">
         <f t="shared" si="51"/>
         <v>4.4667659067443147E-2</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I35" s="8">
         <f t="shared" si="51"/>
         <v>4.247996097184821E-2</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J35" s="8">
         <f t="shared" si="51"/>
         <v>4.4275938347224167E-2</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K35" s="8">
         <f t="shared" si="51"/>
         <v>3.9976283342538665E-2</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L35" s="8">
         <f t="shared" si="51"/>
         <v>3.9823665427524052E-2</v>
       </c>
-      <c r="AG34" s="8">
-        <f t="shared" ref="AG34:AR34" si="52">+AG11/AG$7</f>
+      <c r="AG35" s="8">
+        <f t="shared" ref="AG35:AR35" si="52">+AG11/AG$7</f>
         <v>5.1011767918184278E-2</v>
       </c>
-      <c r="AH34" s="8">
+      <c r="AH35" s="8">
         <f t="shared" si="52"/>
         <v>4.3640944128910245E-2</v>
       </c>
-      <c r="AI34" s="8">
+      <c r="AI35" s="8">
         <f t="shared" si="52"/>
         <v>3.9859580220017524E-2</v>
       </c>
-      <c r="AJ34" s="8">
+      <c r="AJ35" s="8">
         <f t="shared" si="52"/>
         <v>3.9859580220017524E-2</v>
       </c>
-      <c r="AK34" s="8">
+      <c r="AK35" s="8">
         <f t="shared" si="52"/>
         <v>3.9859580220017524E-2</v>
       </c>
-      <c r="AL34" s="8">
+      <c r="AL35" s="8">
         <f t="shared" si="52"/>
         <v>3.9859580220017524E-2</v>
       </c>
-      <c r="AM34" s="8">
+      <c r="AM35" s="8">
         <f t="shared" si="52"/>
         <v>3.9859580220017524E-2</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN35" s="8">
         <f t="shared" si="52"/>
         <v>3.9859580220017524E-2</v>
       </c>
-      <c r="AO34" s="8">
+      <c r="AO35" s="8">
         <f t="shared" si="52"/>
         <v>3.9859580220017524E-2</v>
       </c>
-      <c r="AP34" s="8">
+      <c r="AP35" s="8">
         <f t="shared" si="52"/>
         <v>3.9859580220017517E-2</v>
       </c>
-      <c r="AQ34" s="8">
+      <c r="AQ35" s="8">
         <f t="shared" si="52"/>
         <v>3.9859580220017517E-2</v>
       </c>
-      <c r="AR34" s="8">
+      <c r="AR35" s="8">
         <f t="shared" si="52"/>
         <v>3.9859580220017517E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-      <c r="AQ35" s="8"/>
-      <c r="AR35" s="8"/>
-    </row>
-    <row r="36" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8"/>
+      <c r="AN36" s="8"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="8"/>
+      <c r="AR36" s="8"/>
+    </row>
+    <row r="37" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="3">
-        <f>SUM(L37:L38)-L51</f>
+      <c r="L37" s="3">
+        <f>SUM(L38:L39)-L52</f>
         <v>-6062.6859999999997</v>
       </c>
-      <c r="AH36" s="3">
-        <f>L36</f>
+      <c r="AH37" s="3">
+        <f>L37</f>
         <v>-6062.6859999999997</v>
       </c>
-      <c r="AI36" s="3">
-        <f>+AH36*0.95</f>
+      <c r="AI37" s="3">
+        <f>+AH37*0.95</f>
         <v>-5759.5516999999991</v>
       </c>
-      <c r="AJ36" s="3">
-        <f t="shared" ref="AJ36:AR36" si="53">+AI36*0.95</f>
+      <c r="AJ37" s="3">
+        <f t="shared" ref="AJ37:AR37" si="53">+AI37*0.95</f>
         <v>-5471.5741149999985</v>
       </c>
-      <c r="AK36" s="3">
+      <c r="AK37" s="3">
         <f t="shared" si="53"/>
         <v>-5197.9954092499984</v>
       </c>
-      <c r="AL36" s="3">
+      <c r="AL37" s="3">
         <f t="shared" si="53"/>
         <v>-4938.0956387874985</v>
       </c>
-      <c r="AM36" s="3">
+      <c r="AM37" s="3">
         <f t="shared" si="53"/>
         <v>-4691.1908568481231</v>
       </c>
-      <c r="AN36" s="3">
+      <c r="AN37" s="3">
         <f t="shared" si="53"/>
         <v>-4456.6313140057164</v>
       </c>
-      <c r="AO36" s="3">
+      <c r="AO37" s="3">
         <f t="shared" si="53"/>
         <v>-4233.7997483054305</v>
       </c>
-      <c r="AP36" s="3">
+      <c r="AP37" s="3">
         <f t="shared" si="53"/>
         <v>-4022.1097608901587</v>
       </c>
-      <c r="AQ36" s="3">
+      <c r="AQ37" s="3">
         <f t="shared" si="53"/>
         <v>-3821.0042728456506</v>
       </c>
-      <c r="AR36" s="3">
+      <c r="AR37" s="3">
         <f t="shared" si="53"/>
         <v>-3629.9540592033677</v>
       </c>
     </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="1">
-        <v>6714.5940000000001</v>
-      </c>
-      <c r="D37" s="1">
-        <v>7662.7879999999996</v>
-      </c>
-      <c r="E37" s="1">
-        <v>7353.2449999999999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>7116.9129999999996</v>
-      </c>
-      <c r="G37" s="1">
-        <v>7024.7659999999996</v>
-      </c>
-      <c r="H37" s="1">
-        <v>6624.9390000000003</v>
-      </c>
-      <c r="I37" s="1">
-        <v>7457.0249999999996</v>
-      </c>
-      <c r="J37" s="1">
-        <v>7804.7330000000002</v>
-      </c>
-      <c r="K37" s="1">
-        <v>7199.848</v>
-      </c>
-      <c r="L37" s="1">
-        <v>8177.4049999999997</v>
-      </c>
-      <c r="R37" s="1">
-        <v>139.9</v>
-      </c>
-      <c r="S37" s="1">
-        <v>134.19999999999999</v>
-      </c>
-      <c r="T37" s="1">
-        <v>508.1</v>
-      </c>
-      <c r="U37" s="1">
-        <v>290.3</v>
-      </c>
-      <c r="V37" s="1">
-        <v>290.3</v>
-      </c>
-      <c r="W37" s="1">
-        <v>605</v>
-      </c>
-      <c r="X37" s="1">
-        <v>1113.5999999999999</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>1809.3</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>1467.6</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>2822.8</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>3794.5</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>5018.3999999999996</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>8205.6</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>6027.8</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>5147.2</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>7116.9</v>
-      </c>
-    </row>
     <row r="38" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
-        <v>1112.9100000000001</v>
+        <v>6714.5940000000001</v>
       </c>
       <c r="D38" s="1">
-        <v>914.20399999999995</v>
+        <v>7662.7879999999996</v>
       </c>
       <c r="E38" s="1">
-        <v>514.20100000000002</v>
+        <v>7353.2449999999999</v>
       </c>
       <c r="F38" s="1">
-        <v>20.972999999999999</v>
+        <v>7116.9129999999996</v>
       </c>
       <c r="G38" s="1">
-        <v>20.972999999999999</v>
+        <v>7024.7659999999996</v>
       </c>
       <c r="H38" s="1">
-        <v>30.972999999999999</v>
+        <v>6624.9390000000003</v>
       </c>
       <c r="I38" s="1">
-        <v>1766.902</v>
+        <v>7457.0249999999996</v>
       </c>
       <c r="J38" s="1">
-        <v>1779.0060000000001</v>
+        <v>7804.7330000000002</v>
       </c>
       <c r="K38" s="1">
-        <v>1171.1420000000001</v>
+        <v>7199.848</v>
       </c>
       <c r="L38" s="1">
-        <v>213.11500000000001</v>
+        <v>8177.4049999999997</v>
       </c>
       <c r="R38" s="1">
-        <v>157.4</v>
+        <v>139.9</v>
       </c>
       <c r="S38" s="1">
-        <v>186</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="T38" s="1">
-        <v>289.8</v>
+        <v>508.1</v>
       </c>
       <c r="U38" s="1">
-        <v>457.8</v>
+        <v>290.3</v>
       </c>
       <c r="V38" s="1">
-        <v>457.8</v>
+        <v>290.3</v>
       </c>
       <c r="W38" s="1">
-        <v>595.4</v>
+        <v>605</v>
       </c>
       <c r="X38" s="1">
-        <v>494.9</v>
+        <v>1113.5999999999999</v>
       </c>
       <c r="Y38" s="1">
-        <v>501.4</v>
+        <v>1809.3</v>
       </c>
       <c r="Z38" s="1">
-        <v>266.2</v>
+        <v>1467.6</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>2822.8</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>3794.5</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>5018.3999999999996</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>8205.6</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>6027.8</v>
       </c>
       <c r="AF38" s="1">
-        <v>911.3</v>
+        <v>5147.2</v>
       </c>
       <c r="AG38" s="1">
-        <v>21</v>
+        <v>7116.9</v>
       </c>
     </row>
     <row r="39" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1">
-        <v>2655.1190000000001</v>
+        <v>1112.9100000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>2929.3470000000002</v>
+        <v>914.20399999999995</v>
       </c>
       <c r="E39" s="1">
-        <v>2912.0279999999998</v>
+        <v>514.20100000000002</v>
       </c>
       <c r="F39" s="1">
-        <v>2780.2469999999998</v>
+        <v>20.972999999999999</v>
       </c>
       <c r="G39" s="1">
-        <v>2875.5740000000001</v>
+        <v>20.972999999999999</v>
       </c>
       <c r="H39" s="1">
-        <v>2959.6410000000001</v>
+        <v>30.972999999999999</v>
       </c>
       <c r="I39" s="1">
-        <v>2905.172</v>
+        <v>1766.902</v>
       </c>
       <c r="J39" s="1">
-        <v>3516.64</v>
+        <v>1779.0060000000001</v>
       </c>
       <c r="K39" s="1">
-        <v>3326.6419999999998</v>
+        <v>1171.1420000000001</v>
       </c>
       <c r="L39" s="1">
-        <v>3602.5859999999998</v>
+        <v>213.11500000000001</v>
+      </c>
+      <c r="R39" s="1">
+        <v>157.4</v>
+      </c>
+      <c r="S39" s="1">
+        <v>186</v>
+      </c>
+      <c r="T39" s="1">
+        <v>289.8</v>
+      </c>
+      <c r="U39" s="1">
+        <v>457.8</v>
+      </c>
+      <c r="V39" s="1">
+        <v>457.8</v>
+      </c>
+      <c r="W39" s="1">
+        <v>595.4</v>
+      </c>
+      <c r="X39" s="1">
+        <v>494.9</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>501.4</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>266.2</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>911.3</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1">
-        <v>32349.184000000001</v>
+        <v>2655.1190000000001</v>
       </c>
       <c r="D40" s="1">
-        <v>32520.774000000001</v>
+        <v>2929.3470000000002</v>
       </c>
       <c r="E40" s="1">
-        <v>31749.861000000001</v>
+        <v>2912.0279999999998</v>
       </c>
       <c r="F40" s="1">
-        <v>31658.056</v>
+        <v>2780.2469999999998</v>
       </c>
       <c r="G40" s="1">
-        <v>31662.1</v>
+        <v>2875.5740000000001</v>
       </c>
       <c r="H40" s="1">
-        <v>31927.355</v>
+        <v>2959.6410000000001</v>
       </c>
       <c r="I40" s="1">
-        <v>32175.382000000001</v>
+        <v>2905.172</v>
       </c>
       <c r="J40" s="1">
-        <v>32452.462</v>
+        <v>3516.64</v>
       </c>
       <c r="K40" s="1">
-        <v>32040.839</v>
+        <v>3326.6419999999998</v>
       </c>
       <c r="L40" s="1">
-        <v>32089.394</v>
+        <v>3602.5859999999998</v>
       </c>
     </row>
     <row r="41" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1">
-        <v>1413.0940000000001</v>
+        <v>32349.184000000001</v>
       </c>
       <c r="D41" s="1">
-        <v>1471.9680000000001</v>
+        <v>32520.774000000001</v>
       </c>
       <c r="E41" s="1">
-        <v>1498.3910000000001</v>
+        <v>31749.861000000001</v>
       </c>
       <c r="F41" s="1">
-        <v>1491.444</v>
+        <v>31658.056</v>
       </c>
       <c r="G41" s="1">
-        <v>1501.1679999999999</v>
+        <v>31662.1</v>
       </c>
       <c r="H41" s="1">
-        <v>1510.9580000000001</v>
+        <v>31927.355</v>
       </c>
       <c r="I41" s="1">
-        <v>1568.212</v>
+        <v>32175.382000000001</v>
       </c>
       <c r="J41" s="1">
-        <v>1593.7560000000001</v>
+        <v>32452.462</v>
       </c>
       <c r="K41" s="1">
-        <v>1644.346</v>
+        <v>32040.839</v>
       </c>
       <c r="L41" s="1">
-        <v>1743.566</v>
+        <v>32089.394</v>
       </c>
     </row>
     <row r="42" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
-        <v>5245.4440000000004</v>
+        <v>1413.0940000000001</v>
       </c>
       <c r="D42" s="1">
-        <v>5318.3980000000001</v>
+        <v>1471.9680000000001</v>
       </c>
       <c r="E42" s="1">
-        <v>5474.06</v>
+        <v>1498.3910000000001</v>
       </c>
       <c r="F42" s="1">
-        <v>5664.3590000000004</v>
+        <v>1491.444</v>
       </c>
       <c r="G42" s="1">
-        <v>5743.14</v>
+        <v>1501.1679999999999</v>
       </c>
       <c r="H42" s="1">
-        <v>6045.0290000000005</v>
+        <v>1510.9580000000001</v>
       </c>
       <c r="I42" s="1">
-        <v>6409.1509999999998</v>
+        <v>1568.212</v>
       </c>
       <c r="J42" s="1">
-        <v>6483.777</v>
+        <v>1593.7560000000001</v>
       </c>
       <c r="K42" s="1">
-        <v>6704.8239999999996</v>
+        <v>1644.346</v>
       </c>
       <c r="L42" s="1">
-        <v>7273.598</v>
+        <v>1743.566</v>
       </c>
     </row>
     <row r="43" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5245.4440000000004</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5318.3980000000001</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5474.06</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5664.3590000000004</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5743.14</v>
+      </c>
+      <c r="H43" s="1">
+        <v>6045.0290000000005</v>
+      </c>
+      <c r="I43" s="1">
+        <v>6409.1509999999998</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6483.777</v>
+      </c>
+      <c r="K43" s="1">
+        <v>6704.8239999999996</v>
+      </c>
+      <c r="L43" s="1">
+        <v>7273.598</v>
+      </c>
+    </row>
+    <row r="44" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="1">
-        <f t="shared" ref="C43:L43" si="54">+SUM(C37:C42)</f>
+      <c r="C44" s="1">
+        <f t="shared" ref="C44:L44" si="54">+SUM(C38:C43)</f>
         <v>49490.345000000001</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <f t="shared" si="54"/>
         <v>50817.478999999999</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <f t="shared" si="54"/>
         <v>49501.786</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <f t="shared" si="54"/>
         <v>48731.991999999998</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G44" s="1">
         <f t="shared" si="54"/>
         <v>48827.720999999998</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H44" s="1">
         <f t="shared" si="54"/>
         <v>49098.894999999997</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I44" s="1">
         <f t="shared" si="54"/>
         <v>52281.843999999997</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J44" s="1">
         <f t="shared" si="54"/>
         <v>53630.374000000003</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K44" s="1">
         <f t="shared" si="54"/>
         <v>52087.640999999996</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L44" s="1">
         <f t="shared" si="54"/>
         <v>53099.663999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="1">
-        <v>4344.58</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4440.4120000000003</v>
-      </c>
-      <c r="E45" s="1">
-        <v>4259.5820000000003</v>
-      </c>
-      <c r="F45" s="1">
-        <v>4466.47</v>
-      </c>
-      <c r="G45" s="1">
-        <v>4436.0209999999997</v>
-      </c>
-      <c r="H45" s="1">
-        <v>4391.4369999999999</v>
-      </c>
-      <c r="I45" s="1">
-        <v>4489.9709999999995</v>
-      </c>
-      <c r="J45" s="1">
-        <v>4393.6809999999996</v>
-      </c>
-      <c r="K45" s="1">
-        <v>4128.9049999999997</v>
-      </c>
-      <c r="L45" s="1">
-        <v>4091.77</v>
-      </c>
-    </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1">
-        <v>591.98699999999997</v>
+        <v>4344.58</v>
       </c>
       <c r="D46" s="1">
-        <v>615.37400000000002</v>
+        <v>4440.4120000000003</v>
       </c>
       <c r="E46" s="1">
-        <v>534.42899999999997</v>
+        <v>4259.5820000000003</v>
       </c>
       <c r="F46" s="1">
-        <v>747.41200000000003</v>
+        <v>4466.47</v>
       </c>
       <c r="G46" s="1">
-        <v>607.34799999999996</v>
+        <v>4436.0209999999997</v>
       </c>
       <c r="H46" s="1">
-        <v>598.55700000000002</v>
+        <v>4391.4369999999999</v>
       </c>
       <c r="I46" s="1">
-        <v>641.95299999999997</v>
+        <v>4489.9709999999995</v>
       </c>
       <c r="J46" s="1">
-        <v>899.90899999999999</v>
+        <v>4393.6809999999996</v>
       </c>
       <c r="K46" s="1">
-        <v>614.48900000000003</v>
+        <v>4128.9049999999997</v>
       </c>
       <c r="L46" s="1">
-        <v>632.71799999999996</v>
+        <v>4091.77</v>
       </c>
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="1">
-        <v>1718.069</v>
+        <v>591.98699999999997</v>
       </c>
       <c r="D47" s="1">
-        <v>1908.7139999999999</v>
+        <v>615.37400000000002</v>
       </c>
       <c r="E47" s="1">
-        <v>1838.9079999999999</v>
+        <v>534.42899999999997</v>
       </c>
       <c r="F47" s="1">
-        <v>1803.96</v>
+        <v>747.41200000000003</v>
       </c>
       <c r="G47" s="1">
-        <v>1977.4280000000001</v>
+        <v>607.34799999999996</v>
       </c>
       <c r="H47" s="1">
-        <v>1876.2439999999999</v>
+        <v>598.55700000000002</v>
       </c>
       <c r="I47" s="1">
-        <v>2241.7579999999998</v>
+        <v>641.95299999999997</v>
       </c>
       <c r="J47" s="1">
-        <v>2156.5439999999999</v>
+        <v>899.90899999999999</v>
       </c>
       <c r="K47" s="1">
-        <v>2359.518</v>
+        <v>614.48900000000003</v>
       </c>
       <c r="L47" s="1">
-        <v>2489.4859999999999</v>
+        <v>632.71799999999996</v>
       </c>
     </row>
     <row r="48" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="1">
-        <v>1262.271</v>
+        <v>1718.069</v>
       </c>
       <c r="D48" s="1">
-        <v>1311.9179999999999</v>
+        <v>1908.7139999999999</v>
       </c>
       <c r="E48" s="1">
-        <v>1306.1849999999999</v>
+        <v>1838.9079999999999</v>
       </c>
       <c r="F48" s="1">
-        <v>1442.9690000000001</v>
+        <v>1803.96</v>
       </c>
       <c r="G48" s="1">
-        <v>1469.4839999999999</v>
+        <v>1977.4280000000001</v>
       </c>
       <c r="H48" s="1">
-        <v>1473.72</v>
+        <v>1876.2439999999999</v>
       </c>
       <c r="I48" s="1">
-        <v>1513.1479999999999</v>
+        <v>2241.7579999999998</v>
       </c>
       <c r="J48" s="1">
-        <v>1520.8130000000001</v>
+        <v>2156.5439999999999</v>
       </c>
       <c r="K48" s="1">
-        <v>1609.7260000000001</v>
+        <v>2359.518</v>
       </c>
       <c r="L48" s="1">
-        <v>1728.3610000000001</v>
+        <v>2489.4859999999999</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="1">
-        <v>399.16300000000001</v>
+        <v>1262.271</v>
       </c>
       <c r="D49" s="1">
-        <v>399.387</v>
+        <v>1311.9179999999999</v>
       </c>
       <c r="E49" s="1">
-        <v>399.61399999999998</v>
+        <v>1306.1849999999999</v>
       </c>
       <c r="F49" s="1">
-        <v>399.84399999999999</v>
+        <v>1442.9690000000001</v>
       </c>
       <c r="G49" s="1">
-        <v>798.93600000000004</v>
+        <v>1469.4839999999999</v>
       </c>
       <c r="H49" s="1">
-        <v>1800.0409999999999</v>
+        <v>1473.72</v>
       </c>
       <c r="I49" s="1">
-        <v>1820.396</v>
+        <v>1513.1479999999999</v>
       </c>
       <c r="J49" s="1">
-        <v>1784.453</v>
+        <v>1520.8130000000001</v>
       </c>
       <c r="K49" s="1">
-        <v>1005.881</v>
+        <v>1609.7260000000001</v>
       </c>
       <c r="L49" s="1">
-        <v>0</v>
+        <v>1728.3610000000001</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="1">
-        <v>2908.029</v>
+        <v>399.16300000000001</v>
       </c>
       <c r="D50" s="1">
-        <v>2849.3870000000002</v>
+        <v>399.387</v>
       </c>
       <c r="E50" s="1">
-        <v>2668.4720000000002</v>
+        <v>399.61399999999998</v>
       </c>
       <c r="F50" s="1">
-        <v>2578.1729999999998</v>
+        <v>399.84399999999999</v>
       </c>
       <c r="G50" s="1">
-        <v>2370.692</v>
+        <v>798.93600000000004</v>
       </c>
       <c r="H50" s="1">
-        <v>2028.7819999999999</v>
+        <v>1800.0409999999999</v>
       </c>
       <c r="I50" s="1">
-        <v>1918.0889999999999</v>
+        <v>1820.396</v>
       </c>
       <c r="J50" s="1">
-        <v>1780.806</v>
+        <v>1784.453</v>
       </c>
       <c r="K50" s="1">
-        <v>1696.662</v>
+        <v>1005.881</v>
       </c>
       <c r="L50" s="1">
-        <v>1606.404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="1">
-        <v>14037.965</v>
+        <v>2908.029</v>
       </c>
       <c r="D51" s="1">
-        <v>14070.151</v>
+        <v>2849.3870000000002</v>
       </c>
       <c r="E51" s="1">
-        <v>13900.754000000001</v>
+        <v>2668.4720000000002</v>
       </c>
       <c r="F51" s="1">
-        <v>14143.416999999999</v>
+        <v>2578.1729999999998</v>
       </c>
       <c r="G51" s="1">
-        <v>13217.038</v>
+        <v>2370.692</v>
       </c>
       <c r="H51" s="1">
-        <v>12180.023999999999</v>
+        <v>2028.7819999999999</v>
       </c>
       <c r="I51" s="1">
-        <v>14160.932000000001</v>
+        <v>1918.0889999999999</v>
       </c>
       <c r="J51" s="1">
-        <v>13798.351000000001</v>
+        <v>1780.806</v>
       </c>
       <c r="K51" s="1">
-        <v>14011.037</v>
+        <v>1696.662</v>
       </c>
       <c r="L51" s="1">
-        <v>14453.206</v>
+        <v>1606.404</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="1">
-        <v>2400.085</v>
+        <v>14037.965</v>
       </c>
       <c r="D52" s="1">
-        <v>2389.915</v>
+        <v>14070.151</v>
       </c>
       <c r="E52" s="1">
-        <v>2486.2150000000001</v>
+        <v>13900.754000000001</v>
       </c>
       <c r="F52" s="1">
-        <v>2561.4340000000002</v>
+        <v>14143.416999999999</v>
       </c>
       <c r="G52" s="1">
-        <v>2585.364</v>
+        <v>13217.038</v>
       </c>
       <c r="H52" s="1">
-        <v>2637.3969999999999</v>
+        <v>12180.023999999999</v>
       </c>
       <c r="I52" s="1">
-        <v>2774.9609999999998</v>
+        <v>14160.932000000001</v>
       </c>
       <c r="J52" s="1">
-        <v>2552.25</v>
+        <v>13798.351000000001</v>
       </c>
       <c r="K52" s="1">
-        <v>2633.3530000000001</v>
+        <v>14011.037</v>
       </c>
       <c r="L52" s="1">
-        <v>3145.82</v>
+        <v>14453.206</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2400.085</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2389.915</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2486.2150000000001</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2561.4340000000002</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2585.364</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2637.3969999999999</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2774.9609999999998</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2552.25</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2633.3530000000001</v>
+      </c>
+      <c r="L53" s="1">
+        <v>3145.82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="1">
-        <f t="shared" ref="C53:L53" si="55">+SUM(C45:C52)</f>
+      <c r="C54" s="1">
+        <f t="shared" ref="C54:L54" si="55">+SUM(C46:C53)</f>
         <v>27662.148999999998</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D54" s="1">
         <f t="shared" si="55"/>
         <v>27985.258000000002</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E54" s="1">
         <f t="shared" si="55"/>
         <v>27394.159</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F54" s="1">
         <f t="shared" si="55"/>
         <v>28143.679000000004</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G54" s="1">
         <f t="shared" si="55"/>
         <v>27462.311000000002</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H54" s="1">
         <f t="shared" si="55"/>
         <v>26986.201999999997</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I54" s="1">
         <f t="shared" si="55"/>
         <v>29561.207999999999</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J54" s="1">
         <f t="shared" si="55"/>
         <v>28886.807000000001</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K54" s="1">
         <f t="shared" si="55"/>
         <v>28059.571</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L54" s="1">
         <f t="shared" si="55"/>
         <v>28147.764999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="1">
-        <v>21828.196</v>
-      </c>
-      <c r="D54" s="1">
-        <v>22832.215</v>
-      </c>
-      <c r="E54" s="1">
-        <v>22107.627</v>
-      </c>
-      <c r="F54" s="1">
-        <v>20588.312999999998</v>
-      </c>
-      <c r="G54" s="1">
-        <v>21365.41</v>
-      </c>
-      <c r="H54" s="1">
-        <v>22112.692999999999</v>
-      </c>
-      <c r="I54" s="1">
-        <v>22720.736000000001</v>
-      </c>
-      <c r="J54" s="1">
-        <v>24743.566999999999</v>
-      </c>
-      <c r="K54" s="1">
-        <v>24028.073</v>
-      </c>
-      <c r="L54" s="1">
-        <v>24951.899000000001</v>
-      </c>
-    </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="1">
+        <v>21828.196</v>
+      </c>
+      <c r="D55" s="1">
+        <v>22832.215</v>
+      </c>
+      <c r="E55" s="1">
+        <v>22107.627</v>
+      </c>
+      <c r="F55" s="1">
+        <v>20588.312999999998</v>
+      </c>
+      <c r="G55" s="1">
+        <v>21365.41</v>
+      </c>
+      <c r="H55" s="1">
+        <v>22112.692999999999</v>
+      </c>
+      <c r="I55" s="1">
+        <v>22720.736000000001</v>
+      </c>
+      <c r="J55" s="1">
+        <v>24743.566999999999</v>
+      </c>
+      <c r="K55" s="1">
+        <v>24028.073</v>
+      </c>
+      <c r="L55" s="1">
+        <v>24951.899000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="1">
-        <f t="shared" ref="C55:L55" si="56">+SUM(C53:C54)</f>
+      <c r="C56" s="1">
+        <f t="shared" ref="C56:L56" si="56">+SUM(C54:C55)</f>
         <v>49490.345000000001</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D56" s="1">
         <f t="shared" si="56"/>
         <v>50817.472999999998</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E56" s="1">
         <f t="shared" si="56"/>
         <v>49501.786</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F56" s="1">
         <f t="shared" si="56"/>
         <v>48731.991999999998</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G56" s="1">
         <f t="shared" si="56"/>
         <v>48827.721000000005</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H56" s="1">
         <f t="shared" si="56"/>
         <v>49098.894999999997</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I56" s="1">
         <f t="shared" si="56"/>
         <v>52281.944000000003</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J56" s="1">
         <f t="shared" si="56"/>
         <v>53630.373999999996</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K56" s="1">
         <f t="shared" si="56"/>
         <v>52087.644</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L56" s="1">
         <f t="shared" si="56"/>
         <v>53099.664000000004</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="1">
-        <f t="shared" ref="C57" si="57">SUM(C37:C38)</f>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58" si="57">SUM(C38:C39)</f>
         <v>7827.5039999999999</v>
       </c>
-      <c r="D57" s="1">
-        <f t="shared" ref="D57:E57" si="58">SUM(D37:D38)</f>
+      <c r="D58" s="1">
+        <f t="shared" ref="D58:E58" si="58">SUM(D38:D39)</f>
         <v>8576.9920000000002</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E58" s="1">
         <f t="shared" si="58"/>
         <v>7867.4459999999999</v>
       </c>
-      <c r="F57" s="1">
-        <f t="shared" ref="F57:J57" si="59">SUM(F37:F38)</f>
+      <c r="F58" s="1">
+        <f t="shared" ref="F58:J58" si="59">SUM(F38:F39)</f>
         <v>7137.8859999999995</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G58" s="1">
         <f t="shared" si="59"/>
         <v>7045.7389999999996</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H58" s="1">
         <f t="shared" si="59"/>
         <v>6655.9120000000003</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I58" s="1">
         <f t="shared" si="59"/>
         <v>9223.9269999999997</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J58" s="1">
         <f t="shared" si="59"/>
         <v>9583.7389999999996</v>
       </c>
-      <c r="K57" s="1">
-        <f>SUM(K37:K38)</f>
+      <c r="K58" s="1">
+        <f>SUM(K38:K39)</f>
         <v>8370.99</v>
       </c>
-      <c r="L57" s="1">
-        <f>SUM(L37:L38)</f>
+      <c r="L58" s="1">
+        <f>SUM(L38:L39)</f>
         <v>8390.52</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="14" t="s">
+    <row r="59" spans="2:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="14">
-        <f t="shared" ref="C58" si="60">SUM(C49,C51)</f>
+      <c r="C59" s="14">
+        <f t="shared" ref="C59" si="60">SUM(C50,C52)</f>
         <v>14437.128000000001</v>
       </c>
-      <c r="D58" s="14">
-        <f t="shared" ref="D58:E58" si="61">SUM(D49,D51)</f>
+      <c r="D59" s="14">
+        <f t="shared" ref="D59:E59" si="61">SUM(D50,D52)</f>
         <v>14469.538</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E59" s="14">
         <f t="shared" si="61"/>
         <v>14300.368</v>
       </c>
-      <c r="F58" s="14">
-        <f t="shared" ref="F58:J58" si="62">SUM(F49,F51)</f>
+      <c r="F59" s="14">
+        <f t="shared" ref="F59:J59" si="62">SUM(F50,F52)</f>
         <v>14543.260999999999</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <f t="shared" si="62"/>
         <v>14015.974</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <f t="shared" si="62"/>
         <v>13980.064999999999</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="14">
         <f t="shared" si="62"/>
         <v>15981.328000000001</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J59" s="14">
         <f t="shared" si="62"/>
         <v>15582.804</v>
       </c>
-      <c r="K58" s="14">
-        <f>SUM(K49,K51)</f>
+      <c r="K59" s="14">
+        <f>SUM(K50,K52)</f>
         <v>15016.918</v>
       </c>
-      <c r="L58" s="14">
-        <f>SUM(L49,L51)</f>
+      <c r="L59" s="14">
+        <f>SUM(L50,L52)</f>
         <v>14453.206</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="1">
-        <f>+C57-C58</f>
+      <c r="C60" s="1">
+        <f>+C58-C59</f>
         <v>-6609.6240000000007</v>
       </c>
-      <c r="D59" s="1">
-        <f>+D57-D58</f>
+      <c r="D60" s="1">
+        <f>+D58-D59</f>
         <v>-5892.5460000000003</v>
       </c>
-      <c r="E59" s="1">
-        <f>+E57-E58</f>
+      <c r="E60" s="1">
+        <f>+E58-E59</f>
         <v>-6432.9220000000005</v>
       </c>
-      <c r="F59" s="1">
-        <f>+F57-F58</f>
+      <c r="F60" s="1">
+        <f>+F58-F59</f>
         <v>-7405.3749999999991</v>
       </c>
-      <c r="G59" s="1">
-        <f t="shared" ref="G59:L59" si="63">+G57-G58</f>
+      <c r="G60" s="1">
+        <f t="shared" ref="G60:L60" si="63">+G58-G59</f>
         <v>-6970.2350000000006</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H60" s="1">
         <f t="shared" si="63"/>
         <v>-7324.1529999999984</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I60" s="1">
         <f t="shared" si="63"/>
         <v>-6757.4010000000017</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J60" s="1">
         <f t="shared" si="63"/>
         <v>-5999.0650000000005</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K60" s="1">
         <f t="shared" si="63"/>
         <v>-6645.9279999999999</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L60" s="1">
         <f t="shared" si="63"/>
         <v>-6062.6859999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="1">
-        <f t="shared" ref="D60:J60" si="64">+D40-C40</f>
+      <c r="D61" s="1">
+        <f t="shared" ref="D61:J61" si="64">+D41-C41</f>
         <v>171.59000000000015</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E61" s="1">
         <f t="shared" si="64"/>
         <v>-770.91300000000047</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F61" s="1">
         <f t="shared" si="64"/>
         <v>-91.805000000000291</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G61" s="1">
         <f t="shared" si="64"/>
         <v>4.04399999999805</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H61" s="1">
         <f t="shared" si="64"/>
         <v>265.25500000000102</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I61" s="1">
         <f t="shared" si="64"/>
         <v>248.02700000000186</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J61" s="1">
         <f t="shared" si="64"/>
         <v>277.07999999999811</v>
       </c>
-      <c r="K60" s="1">
-        <f>+K40-J40</f>
+      <c r="K61" s="1">
+        <f>+K41-J41</f>
         <v>-411.62299999999959</v>
       </c>
-      <c r="L60" s="1">
-        <f>+L40-K40</f>
+      <c r="L61" s="1">
+        <f>+L41-K41</f>
         <v>48.555000000000291</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C63" s="1">
         <v>12533.388000000001</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D63" s="1">
         <v>12622.409</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E63" s="1">
         <v>12459.413</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F63" s="1">
         <v>12722.700999999999</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G63" s="1">
         <v>12549.546</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H63" s="1">
         <v>12358.54</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I63" s="1">
         <v>12307.674000000001</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J63" s="1">
         <v>12422.308999999999</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K63" s="1">
         <v>12393.12</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L63" s="1">
         <v>12273.050999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="1">
-        <v>9306.3369999999995</v>
-      </c>
-      <c r="D64" s="1">
-        <v>9286.3989999999994</v>
-      </c>
-      <c r="E64" s="1">
-        <v>9433.8780000000006</v>
-      </c>
-      <c r="F64" s="1">
-        <v>9843.15</v>
-      </c>
-      <c r="G64" s="1">
-        <v>9917.8320000000003</v>
-      </c>
-      <c r="H64" s="1">
-        <v>10033.753000000001</v>
-      </c>
-      <c r="I64" s="1">
-        <v>10025.304</v>
-      </c>
-      <c r="J64" s="1">
-        <v>10151.543</v>
-      </c>
-      <c r="K64" s="1">
-        <v>10366.701999999999</v>
-      </c>
-      <c r="L64" s="1">
-        <v>10090.174000000001</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="1">
-        <v>9872.1380000000008</v>
+        <v>9306.3369999999995</v>
       </c>
       <c r="D65" s="1">
-        <v>9796.7039999999997</v>
+        <v>9286.3989999999994</v>
       </c>
       <c r="E65" s="1">
-        <v>9052.14</v>
+        <v>9433.8780000000006</v>
       </c>
       <c r="F65" s="1">
-        <v>8247.5779999999995</v>
+        <v>9843.15</v>
       </c>
       <c r="G65" s="1">
-        <v>8242.56</v>
+        <v>9917.8320000000003</v>
       </c>
       <c r="H65" s="1">
-        <v>8810.5439999999999</v>
+        <v>10033.753000000001</v>
       </c>
       <c r="I65" s="1">
-        <v>9197.7150000000001</v>
+        <v>10025.304</v>
       </c>
       <c r="J65" s="1">
-        <v>9317.3670000000002</v>
+        <v>10151.543</v>
       </c>
       <c r="K65" s="1">
-        <v>8652.2780000000002</v>
+        <v>10366.701999999999</v>
       </c>
       <c r="L65" s="1">
-        <v>8930.1959999999999</v>
+        <v>10090.174000000001</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="1">
+        <v>9872.1380000000008</v>
+      </c>
+      <c r="D66" s="1">
+        <v>9796.7039999999997</v>
+      </c>
+      <c r="E66" s="1">
+        <v>9052.14</v>
+      </c>
+      <c r="F66" s="1">
+        <v>8247.5779999999995</v>
+      </c>
+      <c r="G66" s="1">
+        <v>8242.56</v>
+      </c>
+      <c r="H66" s="1">
+        <v>8810.5439999999999</v>
+      </c>
+      <c r="I66" s="1">
+        <v>9197.7150000000001</v>
+      </c>
+      <c r="J66" s="1">
+        <v>9317.3670000000002</v>
+      </c>
+      <c r="K66" s="1">
+        <v>8652.2780000000002</v>
+      </c>
+      <c r="L66" s="1">
+        <v>8930.1959999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C67" s="1">
         <v>637.32100000000003</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D67" s="1">
         <v>815.26199999999994</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E67" s="1">
         <v>804.43</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F67" s="1">
         <v>844.62699999999995</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G67" s="1">
         <v>952.16200000000003</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H67" s="1">
         <v>724.51800000000003</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I67" s="1">
         <v>644.68899999999996</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J67" s="1">
         <v>561.24300000000005</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K67" s="1">
         <v>628.73900000000003</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L67" s="1">
         <v>795.97299999999996</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="16" t="s">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="16">
-        <f t="shared" ref="C67:J67" si="65">SUM(C62,C64:C66)</f>
+      <c r="C68" s="16">
+        <f t="shared" ref="C68:J68" si="65">SUM(C63,C65:C67)</f>
         <v>32349.183999999997</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <f t="shared" si="65"/>
         <v>32520.773999999994</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E68" s="16">
         <f t="shared" si="65"/>
         <v>31749.861000000001</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F68" s="16">
         <f t="shared" si="65"/>
         <v>31658.055999999997</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G68" s="16">
         <f t="shared" si="65"/>
         <v>31662.100000000002</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H68" s="16">
         <f t="shared" si="65"/>
         <v>31927.355</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I68" s="16">
         <f t="shared" si="65"/>
         <v>32175.382000000001</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J68" s="16">
         <f t="shared" si="65"/>
         <v>32452.461999999996</v>
       </c>
-      <c r="K67" s="16">
-        <f>SUM(K62,K64:K66)</f>
+      <c r="K68" s="16">
+        <f>SUM(K63,K65:K67)</f>
         <v>32040.839</v>
       </c>
-      <c r="L67" s="16">
-        <f>SUM(L62,L64:L66)</f>
+      <c r="L68" s="16">
+        <f>SUM(L63,L65:L67)</f>
         <v>32089.394</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="5">
-        <f>+C62/C67</f>
+      <c r="C69" s="5">
+        <f>+C63/C68</f>
         <v>0.3874406229226679</v>
       </c>
-      <c r="D68" s="5">
-        <f t="shared" ref="D68:L68" si="66">+D62/D67</f>
+      <c r="D69" s="5">
+        <f t="shared" ref="D69:L69" si="66">+D63/D68</f>
         <v>0.3881337203105929</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="5">
         <f t="shared" si="66"/>
         <v>0.39242417470741053</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F69" s="5">
         <f t="shared" si="66"/>
         <v>0.40187878244956038</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G69" s="5">
         <f t="shared" si="66"/>
         <v>0.39635861171558423</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H69" s="5">
         <f t="shared" si="66"/>
         <v>0.38708311415085905</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I69" s="5">
         <f t="shared" si="66"/>
         <v>0.38251834896629977</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J69" s="5">
         <f t="shared" si="66"/>
         <v>0.38278479457121006</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K69" s="5">
         <f t="shared" si="66"/>
         <v>0.38679136960177607</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L69" s="5">
         <f t="shared" si="66"/>
         <v>0.38246440552912903</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1723.6780000000001</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1779.3209999999999</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1777.701</v>
-      </c>
-      <c r="F69" s="1">
-        <f>7145.446-SUM(C69:E69)</f>
-        <v>1864.7460000000001</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1835.117</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1884.491</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1814.04</v>
-      </c>
-      <c r="J69" s="1">
-        <f>7689.014-SUM(G69:I69)</f>
-        <v>2155.366</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1998.5250000000001</v>
-      </c>
-      <c r="L69" s="1">
-        <v>2010.2070000000001</v>
-      </c>
-    </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1723.6780000000001</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1779.3209999999999</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1777.701</v>
+      </c>
+      <c r="F70" s="1">
+        <f>7145.446-SUM(C70:E70)</f>
+        <v>1864.7460000000001</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1835.117</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1884.491</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1814.04</v>
+      </c>
+      <c r="J70" s="1">
+        <f>7689.014-SUM(G70:I70)</f>
+        <v>2155.366</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1998.5250000000001</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2010.2070000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C71" s="1">
         <v>1736.306</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D71" s="1">
         <v>1630.7</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E71" s="1">
         <v>1795.652</v>
       </c>
-      <c r="F70" s="1">
-        <f>7051.991-SUM(C70:E70)</f>
+      <c r="F71" s="1">
+        <f>7051.991-SUM(C71:E71)</f>
         <v>1889.3329999999996</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G71" s="1">
         <v>1835.6880000000001</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H71" s="1">
         <v>1885.1990000000001</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I71" s="1">
         <v>1885.481</v>
       </c>
-      <c r="J70" s="1">
-        <f>7612.503-SUM(G70:I70)</f>
+      <c r="J71" s="1">
+        <f>7612.503-SUM(G71:I71)</f>
         <v>2006.1349999999993</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K71" s="1">
         <v>1824.587</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L71" s="1">
         <v>1821.867</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B71" s="16" t="s">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C71" s="16">
-        <f t="shared" ref="C71:I71" si="67">SUM(C69:C70)</f>
+      <c r="C72" s="16">
+        <f t="shared" ref="C72:I72" si="67">SUM(C70:C71)</f>
         <v>3459.9840000000004</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <f t="shared" si="67"/>
         <v>3410.0209999999997</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E72" s="16">
         <f t="shared" si="67"/>
         <v>3573.3530000000001</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F72" s="16">
         <f t="shared" si="67"/>
         <v>3754.0789999999997</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G72" s="16">
         <f t="shared" si="67"/>
         <v>3670.8050000000003</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H72" s="16">
         <f t="shared" si="67"/>
         <v>3769.69</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I72" s="16">
         <f t="shared" si="67"/>
         <v>3699.5209999999997</v>
       </c>
-      <c r="J71" s="16">
-        <f>SUM(J69:J70)</f>
+      <c r="J72" s="16">
+        <f>SUM(J70:J71)</f>
         <v>4161.5009999999993</v>
       </c>
-      <c r="K71" s="16">
-        <f>SUM(K69:K70)</f>
+      <c r="K72" s="16">
+        <f>SUM(K70:K71)</f>
         <v>3823.1120000000001</v>
       </c>
-      <c r="L71" s="16">
-        <f>SUM(L69:L70)</f>
+      <c r="L72" s="16">
+        <f>SUM(L70:L71)</f>
         <v>3832.0740000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H73" s="1">
-        <v>2147.306</v>
-      </c>
-      <c r="K73" s="1">
-        <v>2890.3510000000001</v>
-      </c>
-      <c r="L73" s="1">
-        <v>3125.413</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H74" s="1">
-        <v>-4048.8519999999999</v>
+        <v>2147.306</v>
       </c>
       <c r="K74" s="1">
-        <v>-3549.6570000000002</v>
+        <v>2890.3510000000001</v>
       </c>
       <c r="L74" s="1">
-        <v>-3835.8130000000001</v>
+        <v>3125.413</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H75" s="1">
-        <v>-366.572</v>
+        <v>-4048.8519999999999</v>
       </c>
       <c r="K75" s="1">
-        <v>-411.25299999999999</v>
+        <v>-3549.6570000000002</v>
       </c>
       <c r="L75" s="1">
-        <v>-214.05199999999999</v>
+        <v>-3835.8130000000001</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H76" s="1">
-        <v>3769.69</v>
+        <v>-366.572</v>
       </c>
       <c r="K76" s="1">
-        <v>3823.1120000000001</v>
+        <v>-411.25299999999999</v>
       </c>
       <c r="L76" s="1">
-        <v>3832.0740000000001</v>
+        <v>-214.05199999999999</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H77" s="1">
-        <v>81.227000000000004</v>
+        <v>3769.69</v>
       </c>
       <c r="K77" s="1">
-        <v>80.066999999999993</v>
+        <v>3823.1120000000001</v>
       </c>
       <c r="L77" s="1">
-        <v>80.013000000000005</v>
+        <v>3832.0740000000001</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H78" s="1">
-        <v>68.766000000000005</v>
+        <v>81.227000000000004</v>
       </c>
       <c r="K78" s="1">
-        <v>71.977000000000004</v>
+        <v>80.066999999999993</v>
       </c>
       <c r="L78" s="1">
-        <v>80.861999999999995</v>
+        <v>80.013000000000005</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H79" s="1">
-        <v>-42.692</v>
+        <v>68.766000000000005</v>
       </c>
       <c r="K79" s="1">
-        <v>28.547000000000001</v>
+        <v>71.977000000000004</v>
       </c>
       <c r="L79" s="1">
-        <v>55.238</v>
+        <v>80.861999999999995</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H80" s="1">
-        <v>138.58799999999999</v>
+        <v>-42.692</v>
       </c>
       <c r="K80" s="1">
-        <v>114.73</v>
+        <v>28.547000000000001</v>
       </c>
       <c r="L80" s="1">
-        <v>120.139</v>
+        <v>55.238</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H81" s="1">
-        <v>-209.387</v>
+        <v>138.58799999999999</v>
       </c>
       <c r="K81" s="1">
-        <v>-163.928</v>
+        <v>114.73</v>
       </c>
       <c r="L81" s="1">
-        <v>-135.755</v>
+        <v>120.139</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="H82" s="1">
-        <v>-28.959</v>
+        <v>-209.387</v>
       </c>
       <c r="K82" s="1">
-        <v>-131.36699999999999</v>
+        <v>-163.928</v>
       </c>
       <c r="L82" s="1">
-        <v>-176.68299999999999</v>
+        <v>-135.755</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H83" s="1">
-        <v>-19.358000000000001</v>
+        <v>-28.959</v>
       </c>
       <c r="K83" s="1">
-        <v>-276.42599999999999</v>
+        <v>-131.36699999999999</v>
       </c>
       <c r="L83" s="1">
-        <v>11.045999999999999</v>
+        <v>-176.68299999999999</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H84" s="1">
-        <v>-114.303</v>
+        <v>-19.358000000000001</v>
       </c>
       <c r="K84" s="1">
-        <v>306.41300000000001</v>
+        <v>-276.42599999999999</v>
       </c>
       <c r="L84" s="1">
-        <v>-267.23500000000001</v>
+        <v>11.045999999999999</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H85" s="1">
-        <v>4.2359999999999998</v>
+        <v>-114.303</v>
       </c>
       <c r="K85" s="1">
-        <v>88.912999999999997</v>
+        <v>306.41300000000001</v>
       </c>
       <c r="L85" s="1">
-        <v>118.63500000000001</v>
+        <v>-267.23500000000001</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H86" s="1">
+        <v>4.2359999999999998</v>
+      </c>
+      <c r="K86" s="1">
+        <v>88.912999999999997</v>
+      </c>
+      <c r="L86" s="1">
+        <v>118.63500000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H87" s="1">
         <v>-88.843000000000004</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K87" s="1">
         <v>-82.28</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L87" s="1">
         <v>-370.62400000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
+    <row r="88" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H87" s="3">
-        <f>+SUM(H73:H86)</f>
+      <c r="H88" s="3">
+        <f>+SUM(H74:H87)</f>
         <v>1290.8470000000002</v>
       </c>
-      <c r="K87" s="3">
-        <f>+SUM(K73:K86)</f>
+      <c r="K88" s="3">
+        <f>+SUM(K74:K87)</f>
         <v>2789.1989999999996</v>
       </c>
-      <c r="L87" s="3">
-        <f>+SUM(L73:L86)</f>
+      <c r="L88" s="3">
+        <f>+SUM(L74:L87)</f>
         <v>2423.2579999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H89" s="1">
-        <v>-78.287000000000006</v>
-      </c>
-      <c r="K89" s="1">
-        <v>-128.27699999999999</v>
-      </c>
-      <c r="L89" s="1">
-        <v>-155.88900000000001</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H90" s="1">
-        <v>0</v>
+        <v>-78.287000000000006</v>
       </c>
       <c r="K90" s="1">
-        <v>-156.01499999999999</v>
+        <v>-128.27699999999999</v>
       </c>
       <c r="L90" s="1">
-        <v>-1.65</v>
+        <v>-155.88900000000001</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
       </c>
       <c r="K91" s="1">
-        <v>769.95399999999995</v>
+        <v>-156.01499999999999</v>
       </c>
       <c r="L91" s="1">
-        <v>962.41300000000001</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
       </c>
+      <c r="K92" s="1">
+        <v>769.95399999999995</v>
+      </c>
       <c r="L92" s="1">
+        <v>962.41300000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
         <v>-36.19</v>
       </c>
     </row>
-    <row r="93" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="3" t="s">
+    <row r="94" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H93" s="3">
-        <f>+SUM(H89:H92)</f>
+      <c r="H94" s="3">
+        <f>+SUM(H90:H93)</f>
         <v>-78.287000000000006</v>
       </c>
-      <c r="K93" s="3">
-        <f>+SUM(K89:K92)</f>
+      <c r="K94" s="3">
+        <f>+SUM(K90:K93)</f>
         <v>485.66199999999998</v>
       </c>
-      <c r="L93" s="3">
-        <f>+SUM(L89:L92)</f>
+      <c r="L94" s="3">
+        <f>+SUM(L90:L93)</f>
         <v>768.68399999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0</v>
-      </c>
-      <c r="K95" s="1">
-        <v>-800</v>
-      </c>
-      <c r="L95" s="1">
-        <v>-1033.45</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H96" s="1">
-        <v>118.75</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1">
-        <v>351.60199999999998</v>
+        <v>-800</v>
       </c>
       <c r="L96" s="1">
-        <v>169.066</v>
+        <v>-1033.45</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H97" s="1">
-        <v>-1599.998</v>
+        <v>118.75</v>
       </c>
       <c r="K97" s="1">
-        <v>-3536.3960000000002</v>
+        <v>351.60199999999998</v>
       </c>
       <c r="L97" s="1">
-        <v>-1654.327</v>
+        <v>169.066</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H98" s="1">
-        <v>-1.883</v>
+        <v>-1599.998</v>
       </c>
       <c r="K98" s="1">
-        <v>-27.87</v>
+        <v>-3536.3960000000002</v>
       </c>
       <c r="L98" s="1">
-        <v>-6.1139999999999999</v>
+        <v>-1654.327</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99" s="1">
+        <v>-1.883</v>
+      </c>
+      <c r="K99" s="1">
+        <v>-27.87</v>
+      </c>
+      <c r="L99" s="1">
+        <v>-6.1139999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H100" s="1">
         <v>-6.25</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K100" s="1">
         <v>-15.651999999999999</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L100" s="1">
         <v>21.957000000000001</v>
       </c>
     </row>
-    <row r="100" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="3" t="s">
+    <row r="101" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H100" s="3">
-        <f>+SUM(H95:H99)</f>
+      <c r="H101" s="3">
+        <f>+SUM(H96:H100)</f>
         <v>-1489.3810000000001</v>
       </c>
-      <c r="K100" s="3">
-        <f>+SUM(K95:K99)</f>
+      <c r="K101" s="3">
+        <f>+SUM(K96:K100)</f>
         <v>-4028.3160000000003</v>
       </c>
-      <c r="L100" s="3">
-        <f>+SUM(L95:L99)</f>
+      <c r="L101" s="3">
+        <f>+SUM(L96:L100)</f>
         <v>-2502.8680000000004</v>
       </c>
     </row>
-    <row r="101" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H102" s="1">
-        <v>-122.723</v>
-      </c>
-      <c r="K102" s="1">
-        <v>150.14599999999999</v>
-      </c>
-      <c r="L102" s="1">
-        <v>287.471</v>
-      </c>
-    </row>
+    <row r="102" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="H103" s="1">
-        <f>SUM(H102,H100,H93,H87)</f>
-        <v>-399.54399999999987</v>
+        <v>-122.723</v>
       </c>
       <c r="K103" s="1">
-        <f>SUM(K102,K100,K93,K87)</f>
-        <v>-603.30900000000065</v>
+        <v>150.14599999999999</v>
       </c>
       <c r="L103" s="1">
-        <f>SUM(L102,L100,L93,L87)</f>
-        <v>976.54499999999939</v>
+        <v>287.471</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G104" s="1">
-        <v>7118.5150000000003</v>
+        <v>108</v>
       </c>
       <c r="H104" s="1">
-        <v>7204.0280000000002</v>
+        <f>SUM(H103,H101,H94,H88)</f>
+        <v>-399.54399999999987</v>
       </c>
       <c r="K104" s="1">
-        <v>7807.3370000000004</v>
+        <f>SUM(K103,K101,K94,K88)</f>
+        <v>-603.30900000000065</v>
       </c>
       <c r="L104" s="1">
-        <v>7204.0280000000002</v>
+        <f>SUM(L103,L101,L94,L88)</f>
+        <v>976.54499999999939</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" s="1">
+        <v>7118.5150000000003</v>
+      </c>
+      <c r="H105" s="1">
+        <v>7204.0280000000002</v>
+      </c>
+      <c r="K105" s="1">
+        <v>7807.3370000000004</v>
+      </c>
+      <c r="L105" s="1">
+        <v>7204.0280000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G105" s="1">
-        <f>+SUM(G103:G104)</f>
+      <c r="G106" s="1">
+        <f>+SUM(G104:G105)</f>
         <v>7118.5150000000003</v>
       </c>
-      <c r="H105" s="1">
-        <f>+SUM(H103:H104)</f>
+      <c r="H106" s="1">
+        <f>+SUM(H104:H105)</f>
         <v>6804.4840000000004</v>
       </c>
-      <c r="K105" s="1">
-        <f>+SUM(K103:K104)</f>
+      <c r="K106" s="1">
+        <f>+SUM(K104:K105)</f>
         <v>7204.0280000000002</v>
       </c>
-      <c r="L105" s="1">
-        <f>+SUM(L103:L104)</f>
+      <c r="L106" s="1">
+        <f>+SUM(L104:L105)</f>
         <v>8180.5729999999994</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C109" s="1">
-        <f t="shared" ref="C109:J109" si="68">+C87+C89</f>
+      <c r="C110" s="1">
+        <f t="shared" ref="C110:J110" si="68">+C88+C90</f>
         <v>0</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D110" s="1">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E110" s="1">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F110" s="1">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G110" s="1">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H110" s="1">
         <f t="shared" si="68"/>
         <v>1212.5600000000002</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I110" s="1">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J110" s="1">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="K109" s="1">
-        <f>+K87+K89</f>
+      <c r="K110" s="1">
+        <f>+K88+K90</f>
         <v>2660.9219999999996</v>
       </c>
-      <c r="L109" s="1">
-        <f>+L87+L89</f>
+      <c r="L110" s="1">
+        <f>+L88+L90</f>
         <v>2267.3689999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F57:L57 B68:L73 K58:L67" formulaRange="1"/>
-    <ignoredError sqref="B37:J56 B31:J34 B7:J27 B29:J29" formula="1"/>
-    <ignoredError sqref="B57:E57 B58:J67" formula="1" formulaRange="1"/>
+    <ignoredError sqref="F58:L58 B69:L74 K59:L68" formulaRange="1"/>
+    <ignoredError sqref="B38:J57 B32:J35 B7:J26 B30:J30 B27:I27" formula="1"/>
+    <ignoredError sqref="B58:E58 B59:J68" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Media/NFLX.xlsx
+++ b/Media/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameel/Library/CloudStorage/Dropbox/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167446E4-E79E-9841-9E26-CEB32C6309B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5A9D2A-48BF-2846-B010-7F074D9A8681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="8660" windowWidth="30580" windowHeight="13120" activeTab="1" xr2:uid="{5E11661E-A77E-1640-8F75-A4797723CAFF}"/>
+    <workbookView xWindow="6180" yWindow="8660" windowWidth="30580" windowHeight="13120" xr2:uid="{5E11661E-A77E-1640-8F75-A4797723CAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1307,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6F2AC4-AD35-B948-83BC-3C712C792D57}">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1681,11 +1681,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F050DE-6A57-5442-A64A-828AEE29071D}">
   <dimension ref="B1:IK127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L92" sqref="L92"/>
+      <selection pane="bottomRight" activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4403,40 +4403,40 @@
         <v>156.56603254221929</v>
       </c>
       <c r="AJ31" s="1">
-        <f>+AJ$29*(AI31/AI$29)</f>
-        <v>180.89674176072296</v>
+        <f>+AI31</f>
+        <v>156.56603254221929</v>
       </c>
       <c r="AK31" s="1">
-        <f t="shared" ref="AK31:AR31" si="38">+AK$29*(AJ31/AJ$29)</f>
-        <v>209.13726856958283</v>
+        <f t="shared" ref="AK31:AR31" si="38">+AJ31</f>
+        <v>156.56603254221929</v>
       </c>
       <c r="AL31" s="1">
         <f t="shared" si="38"/>
-        <v>241.93189753536205</v>
+        <v>156.56603254221929</v>
       </c>
       <c r="AM31" s="1">
         <f t="shared" si="38"/>
-        <v>280.03322534349456</v>
+        <v>156.56603254221929</v>
       </c>
       <c r="AN31" s="1">
         <f t="shared" si="38"/>
-        <v>324.32068105924282</v>
+        <v>156.56603254221929</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="38"/>
-        <v>375.82226176323928</v>
+        <v>156.56603254221929</v>
       </c>
       <c r="AP31" s="1">
         <f t="shared" si="38"/>
-        <v>435.74004974783941</v>
+        <v>156.56603254221929</v>
       </c>
       <c r="AQ31" s="1">
         <f t="shared" si="38"/>
-        <v>505.48017849734748</v>
+        <v>156.56603254221929</v>
       </c>
       <c r="AR31" s="1">
         <f t="shared" si="38"/>
-        <v>586.68803397070042</v>
+        <v>156.56603254221929</v>
       </c>
     </row>
     <row r="32" spans="2:44" x14ac:dyDescent="0.2">
@@ -4509,39 +4509,39 @@
       </c>
       <c r="AJ32" s="1">
         <f t="shared" ref="AJ32:AR32" si="39">+SUM(AJ29:AJ31)</f>
-        <v>14901.24193425826</v>
+        <v>14876.911225039756</v>
       </c>
       <c r="AK32" s="1">
         <f t="shared" si="39"/>
-        <v>17227.535477379981</v>
+        <v>17174.964241352616</v>
       </c>
       <c r="AL32" s="1">
         <f t="shared" si="39"/>
-        <v>19928.969984197694</v>
+        <v>19843.604119204549</v>
       </c>
       <c r="AM32" s="1">
         <f t="shared" si="39"/>
-        <v>23067.540077607398</v>
+        <v>22944.072884806123</v>
       </c>
       <c r="AN32" s="1">
         <f t="shared" si="39"/>
-        <v>26715.688108631817</v>
+        <v>26547.933460114793</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="39"/>
-        <v>30958.094614118178</v>
+        <v>30738.838384897157</v>
       </c>
       <c r="AP32" s="1">
         <f t="shared" si="39"/>
-        <v>35893.780277849561</v>
+        <v>35614.606260643945</v>
       </c>
       <c r="AQ32" s="1">
         <f t="shared" si="39"/>
-        <v>41638.574357100239</v>
+        <v>41289.660211145114</v>
       </c>
       <c r="AR32" s="1">
         <f t="shared" si="39"/>
-        <v>48328.014363550661</v>
+        <v>47897.892362122184</v>
       </c>
     </row>
     <row r="33" spans="2:245" x14ac:dyDescent="0.2">
@@ -4605,39 +4605,39 @@
       </c>
       <c r="AJ33" s="1">
         <f>+AJ32*(AI33/AI32)</f>
-        <v>-1933.2667659003098</v>
+        <v>-1930.1101329343837</v>
       </c>
       <c r="AK33" s="1">
         <f t="shared" ref="AK33:AR33" si="40">+AK32*(AJ33/AJ32)</f>
-        <v>-2235.076911288676</v>
+        <v>-2228.2563909654436</v>
       </c>
       <c r="AL33" s="1">
         <f t="shared" si="40"/>
-        <v>-2585.5573326742337</v>
+        <v>-2574.4820820030691</v>
       </c>
       <c r="AM33" s="1">
         <f t="shared" si="40"/>
-        <v>-2992.7511277154281</v>
+        <v>-2976.7326628401652</v>
       </c>
       <c r="AN33" s="1">
         <f t="shared" si="40"/>
-        <v>-3466.0568680409733</v>
+        <v>-3444.2926091802642</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="40"/>
-        <v>-4016.4608907848874</v>
+        <v>-3988.0148872209088</v>
       </c>
       <c r="AP33" s="1">
         <f t="shared" si="40"/>
-        <v>-4656.8100041487369</v>
+        <v>-4620.5903486497091</v>
       </c>
       <c r="AQ33" s="1">
         <f t="shared" si="40"/>
-        <v>-5402.1317376898041</v>
+        <v>-5356.8640931871842</v>
       </c>
       <c r="AR33" s="1">
         <f t="shared" si="40"/>
-        <v>-6270.0105429605601</v>
+        <v>-6214.2071022599248</v>
       </c>
     </row>
     <row r="34" spans="2:245" x14ac:dyDescent="0.2">
@@ -4712,843 +4712,843 @@
       </c>
       <c r="AJ34" s="1">
         <f>SUM(AJ32:AJ33)</f>
-        <v>12967.975168357951</v>
+        <v>12946.801092105372</v>
       </c>
       <c r="AK34" s="1">
         <f t="shared" ref="AK34:AR34" si="41">SUM(AK32:AK33)</f>
-        <v>14992.458566091305</v>
+        <v>14946.707850387173</v>
       </c>
       <c r="AL34" s="1">
         <f t="shared" si="41"/>
-        <v>17343.41265152346</v>
+        <v>17269.12203720148</v>
       </c>
       <c r="AM34" s="1">
         <f t="shared" si="41"/>
-        <v>20074.788949891969</v>
+        <v>19967.340221965958</v>
       </c>
       <c r="AN34" s="1">
         <f t="shared" si="41"/>
-        <v>23249.631240590843</v>
+        <v>23103.640850934527</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" si="41"/>
-        <v>26941.633723333289</v>
+        <v>26750.823497676247</v>
       </c>
       <c r="AP34" s="1">
         <f t="shared" si="41"/>
-        <v>31236.970273700823</v>
+        <v>30994.015911994236</v>
       </c>
       <c r="AQ34" s="1">
         <f t="shared" si="41"/>
-        <v>36236.442619410431</v>
+        <v>35932.796117957929</v>
       </c>
       <c r="AR34" s="1">
         <f t="shared" si="41"/>
-        <v>42058.0038205901</v>
+        <v>41683.685259862257</v>
       </c>
       <c r="AS34" s="1">
         <f t="shared" ref="AS34:DD34" si="42">+AR34*(1+$AV$36)</f>
-        <v>42478.583858796002</v>
+        <v>42100.52211246088</v>
       </c>
       <c r="AT34" s="1">
         <f t="shared" si="42"/>
-        <v>42903.369697383961</v>
+        <v>42521.527333585487</v>
       </c>
       <c r="AU34" s="1">
         <f t="shared" si="42"/>
-        <v>43332.403394357803</v>
+        <v>42946.74260692134</v>
       </c>
       <c r="AV34" s="1">
         <f t="shared" si="42"/>
-        <v>43765.727428301383</v>
+        <v>43376.210032990552</v>
       </c>
       <c r="AW34" s="1">
         <f t="shared" si="42"/>
-        <v>44203.384702584401</v>
+        <v>43809.972133320458</v>
       </c>
       <c r="AX34" s="1">
         <f t="shared" si="42"/>
-        <v>44645.418549610244</v>
+        <v>44248.071854653666</v>
       </c>
       <c r="AY34" s="1">
         <f t="shared" si="42"/>
-        <v>45091.87273510635</v>
+        <v>44690.552573200206</v>
       </c>
       <c r="AZ34" s="1">
         <f t="shared" si="42"/>
-        <v>45542.791462457411</v>
+        <v>45137.458098932206</v>
       </c>
       <c r="BA34" s="1">
         <f t="shared" si="42"/>
-        <v>45998.219377081987</v>
+        <v>45588.832679921528</v>
       </c>
       <c r="BB34" s="1">
         <f t="shared" si="42"/>
-        <v>46458.201570852805</v>
+        <v>46044.721006720742</v>
       </c>
       <c r="BC34" s="1">
         <f t="shared" si="42"/>
-        <v>46922.783586561331</v>
+        <v>46505.168216787948</v>
       </c>
       <c r="BD34" s="1">
         <f t="shared" si="42"/>
-        <v>47392.011422426942</v>
+        <v>46970.219898955831</v>
       </c>
       <c r="BE34" s="1">
         <f t="shared" si="42"/>
-        <v>47865.931536651209</v>
+        <v>47439.922097945389</v>
       </c>
       <c r="BF34" s="1">
         <f t="shared" si="42"/>
-        <v>48344.590852017718</v>
+        <v>47914.321318924842</v>
       </c>
       <c r="BG34" s="1">
         <f t="shared" si="42"/>
-        <v>48828.036760537892</v>
+        <v>48393.464532114092</v>
       </c>
       <c r="BH34" s="1">
         <f t="shared" si="42"/>
-        <v>49316.317128143273</v>
+        <v>48877.399177435233</v>
       </c>
       <c r="BI34" s="1">
         <f t="shared" si="42"/>
-        <v>49809.480299424707</v>
+        <v>49366.173169209585</v>
       </c>
       <c r="BJ34" s="1">
         <f t="shared" si="42"/>
-        <v>50307.575102418952</v>
+        <v>49859.834900901682</v>
       </c>
       <c r="BK34" s="1">
         <f t="shared" si="42"/>
-        <v>50810.650853443141</v>
+        <v>50358.433249910697</v>
       </c>
       <c r="BL34" s="1">
         <f t="shared" si="42"/>
-        <v>51318.757361977572</v>
+        <v>50862.017582409804</v>
       </c>
       <c r="BM34" s="1">
         <f t="shared" si="42"/>
-        <v>51831.944935597348</v>
+        <v>51370.637758233905</v>
       </c>
       <c r="BN34" s="1">
         <f t="shared" si="42"/>
-        <v>52350.26438495332</v>
+        <v>51884.344135816245</v>
       </c>
       <c r="BO34" s="1">
         <f t="shared" si="42"/>
-        <v>52873.767028802853</v>
+        <v>52403.187577174409</v>
       </c>
       <c r="BP34" s="1">
         <f t="shared" si="42"/>
-        <v>53402.504699090881</v>
+        <v>52927.219452946156</v>
       </c>
       <c r="BQ34" s="1">
         <f t="shared" si="42"/>
-        <v>53936.529746081789</v>
+        <v>53456.491647475617</v>
       </c>
       <c r="BR34" s="1">
         <f t="shared" si="42"/>
-        <v>54475.895043542609</v>
+        <v>53991.056563950377</v>
       </c>
       <c r="BS34" s="1">
         <f t="shared" si="42"/>
-        <v>55020.653993978034</v>
+        <v>54530.967129589881</v>
       </c>
       <c r="BT34" s="1">
         <f t="shared" si="42"/>
-        <v>55570.860533917818</v>
+        <v>55076.276800885782</v>
       </c>
       <c r="BU34" s="1">
         <f t="shared" si="42"/>
-        <v>56126.569139256993</v>
+        <v>55627.039568894637</v>
       </c>
       <c r="BV34" s="1">
         <f t="shared" si="42"/>
-        <v>56687.834830649561</v>
+        <v>56183.309964583583</v>
       </c>
       <c r="BW34" s="1">
         <f t="shared" si="42"/>
-        <v>57254.713178956059</v>
+        <v>56745.143064229422</v>
       </c>
       <c r="BX34" s="1">
         <f t="shared" si="42"/>
-        <v>57827.260310745623</v>
+        <v>57312.594494871715</v>
       </c>
       <c r="BY34" s="1">
         <f t="shared" si="42"/>
-        <v>58405.53291385308</v>
+        <v>57885.720439820434</v>
       </c>
       <c r="BZ34" s="1">
         <f t="shared" si="42"/>
-        <v>58989.588242991609</v>
+        <v>58464.57764421864</v>
       </c>
       <c r="CA34" s="1">
         <f t="shared" si="42"/>
-        <v>59579.484125421528</v>
+        <v>59049.223420660826</v>
       </c>
       <c r="CB34" s="1">
         <f t="shared" si="42"/>
-        <v>60175.278966675745</v>
+        <v>59639.715654867432</v>
       </c>
       <c r="CC34" s="1">
         <f t="shared" si="42"/>
-        <v>60777.031756342505</v>
+        <v>60236.112811416104</v>
       </c>
       <c r="CD34" s="1">
         <f t="shared" si="42"/>
-        <v>61384.802073905928</v>
+        <v>60838.473939530268</v>
       </c>
       <c r="CE34" s="1">
         <f t="shared" si="42"/>
-        <v>61998.650094644989</v>
+        <v>61446.858678925571</v>
       </c>
       <c r="CF34" s="1">
         <f t="shared" si="42"/>
-        <v>62618.636595591437</v>
+        <v>62061.327265714826</v>
       </c>
       <c r="CG34" s="1">
         <f t="shared" si="42"/>
-        <v>63244.822961547354</v>
+        <v>62681.940538371979</v>
       </c>
       <c r="CH34" s="1">
         <f t="shared" si="42"/>
-        <v>63877.271191162828</v>
+        <v>63308.7599437557</v>
       </c>
       <c r="CI34" s="1">
         <f t="shared" si="42"/>
-        <v>64516.04390307446</v>
+        <v>63941.84754319326</v>
       </c>
       <c r="CJ34" s="1">
         <f t="shared" si="42"/>
-        <v>65161.204342105208</v>
+        <v>64581.266018625196</v>
       </c>
       <c r="CK34" s="1">
         <f t="shared" si="42"/>
-        <v>65812.816385526254</v>
+        <v>65227.078678811449</v>
       </c>
       <c r="CL34" s="1">
         <f t="shared" si="42"/>
-        <v>66470.944549381515</v>
+        <v>65879.34946559956</v>
       </c>
       <c r="CM34" s="1">
         <f t="shared" si="42"/>
-        <v>67135.653994875334</v>
+        <v>66538.142960255558</v>
       </c>
       <c r="CN34" s="1">
         <f t="shared" si="42"/>
-        <v>67807.01053482409</v>
+        <v>67203.52438985811</v>
       </c>
       <c r="CO34" s="1">
         <f t="shared" si="42"/>
-        <v>68485.080640172338</v>
+        <v>67875.559633756697</v>
       </c>
       <c r="CP34" s="1">
         <f t="shared" si="42"/>
-        <v>69169.931446574061</v>
+        <v>68554.31523009426</v>
       </c>
       <c r="CQ34" s="1">
         <f t="shared" si="42"/>
-        <v>69861.630761039807</v>
+        <v>69239.858382395207</v>
       </c>
       <c r="CR34" s="1">
         <f t="shared" si="42"/>
-        <v>70560.247068650206</v>
+        <v>69932.256966219153</v>
       </c>
       <c r="CS34" s="1">
         <f t="shared" si="42"/>
-        <v>71265.849539336705</v>
+        <v>70631.579535881348</v>
       </c>
       <c r="CT34" s="1">
         <f t="shared" si="42"/>
-        <v>71978.508034730068</v>
+        <v>71337.895331240157</v>
       </c>
       <c r="CU34" s="1">
         <f t="shared" si="42"/>
-        <v>72698.293115077366</v>
+        <v>72051.274284552564</v>
       </c>
       <c r="CV34" s="1">
         <f t="shared" si="42"/>
-        <v>73425.276046228144</v>
+        <v>72771.787027398095</v>
       </c>
       <c r="CW34" s="1">
         <f t="shared" si="42"/>
-        <v>74159.528806690432</v>
+        <v>73499.504897672072</v>
       </c>
       <c r="CX34" s="1">
         <f t="shared" si="42"/>
-        <v>74901.124094757339</v>
+        <v>74234.499946648793</v>
       </c>
       <c r="CY34" s="1">
         <f t="shared" si="42"/>
-        <v>75650.135335704908</v>
+        <v>74976.844946115278</v>
       </c>
       <c r="CZ34" s="1">
         <f t="shared" si="42"/>
-        <v>76406.636689061954</v>
+        <v>75726.613395576438</v>
       </c>
       <c r="DA34" s="1">
         <f t="shared" si="42"/>
-        <v>77170.703055952574</v>
+        <v>76483.879529532205</v>
       </c>
       <c r="DB34" s="1">
         <f t="shared" si="42"/>
-        <v>77942.4100865121</v>
+        <v>77248.718324827525</v>
       </c>
       <c r="DC34" s="1">
         <f t="shared" si="42"/>
-        <v>78721.834187377215</v>
+        <v>78021.2055080758</v>
       </c>
       <c r="DD34" s="1">
         <f t="shared" si="42"/>
-        <v>79509.052529250985</v>
+        <v>78801.417563156559</v>
       </c>
       <c r="DE34" s="1">
         <f t="shared" ref="DE34:FP34" si="43">+DD34*(1+$AV$36)</f>
-        <v>80304.1430545435</v>
+        <v>79589.431738788131</v>
       </c>
       <c r="DF34" s="1">
         <f t="shared" si="43"/>
-        <v>81107.184485088932</v>
+        <v>80385.326056176011</v>
       </c>
       <c r="DG34" s="1">
         <f t="shared" si="43"/>
-        <v>81918.256329939817</v>
+        <v>81189.179316737776</v>
       </c>
       <c r="DH34" s="1">
         <f t="shared" si="43"/>
-        <v>82737.438893239218</v>
+        <v>82001.071109905155</v>
       </c>
       <c r="DI34" s="1">
         <f t="shared" si="43"/>
-        <v>83564.813282171614</v>
+        <v>82821.081821004205</v>
       </c>
       <c r="DJ34" s="1">
         <f t="shared" si="43"/>
-        <v>84400.461414993333</v>
+        <v>83649.292639214254</v>
       </c>
       <c r="DK34" s="1">
         <f t="shared" si="43"/>
-        <v>85244.466029143266</v>
+        <v>84485.785565606391</v>
       </c>
       <c r="DL34" s="1">
         <f t="shared" si="43"/>
-        <v>86096.910689434706</v>
+        <v>85330.643421262459</v>
       </c>
       <c r="DM34" s="1">
         <f t="shared" si="43"/>
-        <v>86957.879796329056</v>
+        <v>86183.94985547509</v>
       </c>
       <c r="DN34" s="1">
         <f t="shared" si="43"/>
-        <v>87827.458594292344</v>
+        <v>87045.789354029839</v>
       </c>
       <c r="DO34" s="1">
         <f t="shared" si="43"/>
-        <v>88705.733180235271</v>
+        <v>87916.247247570136</v>
       </c>
       <c r="DP34" s="1">
         <f t="shared" si="43"/>
-        <v>89592.790512037624</v>
+        <v>88795.409720045835</v>
       </c>
       <c r="DQ34" s="1">
         <f t="shared" si="43"/>
-        <v>90488.718417158001</v>
+        <v>89683.363817246296</v>
       </c>
       <c r="DR34" s="1">
         <f t="shared" si="43"/>
-        <v>91393.605601329575</v>
+        <v>90580.197455418762</v>
       </c>
       <c r="DS34" s="1">
         <f t="shared" si="43"/>
-        <v>92307.541657342867</v>
+        <v>91485.999429972944</v>
       </c>
       <c r="DT34" s="1">
         <f t="shared" si="43"/>
-        <v>93230.617073916292</v>
+        <v>92400.859424272669</v>
       </c>
       <c r="DU34" s="1">
         <f t="shared" si="43"/>
-        <v>94162.923244655452</v>
+        <v>93324.868018515393</v>
       </c>
       <c r="DV34" s="1">
         <f t="shared" si="43"/>
-        <v>95104.552477102014</v>
+        <v>94258.116698700542</v>
       </c>
       <c r="DW34" s="1">
         <f t="shared" si="43"/>
-        <v>96055.598001873033</v>
+        <v>95200.697865687544</v>
       </c>
       <c r="DX34" s="1">
         <f t="shared" si="43"/>
-        <v>97016.153981891766</v>
+        <v>96152.704844344422</v>
       </c>
       <c r="DY34" s="1">
         <f t="shared" si="43"/>
-        <v>97986.315521710683</v>
+        <v>97114.231892787866</v>
       </c>
       <c r="DZ34" s="1">
         <f t="shared" si="43"/>
-        <v>98966.178676927797</v>
+        <v>98085.374211715753</v>
       </c>
       <c r="EA34" s="1">
         <f t="shared" si="43"/>
-        <v>99955.840463697081</v>
+        <v>99066.227953832917</v>
       </c>
       <c r="EB34" s="1">
         <f t="shared" si="43"/>
-        <v>100955.39886833406</v>
+        <v>100056.89023337125</v>
       </c>
       <c r="EC34" s="1">
         <f t="shared" si="43"/>
-        <v>101964.9528570174</v>
+        <v>101057.45913570496</v>
       </c>
       <c r="ED34" s="1">
         <f t="shared" si="43"/>
-        <v>102984.60238558758</v>
+        <v>102068.03372706202</v>
       </c>
       <c r="EE34" s="1">
         <f t="shared" si="43"/>
-        <v>104014.44840944346</v>
+        <v>103088.71406433264</v>
       </c>
       <c r="EF34" s="1">
         <f t="shared" si="43"/>
-        <v>105054.59289353789</v>
+        <v>104119.60120497597</v>
       </c>
       <c r="EG34" s="1">
         <f t="shared" si="43"/>
-        <v>106105.13882247327</v>
+        <v>105160.79721702574</v>
       </c>
       <c r="EH34" s="1">
         <f t="shared" si="43"/>
-        <v>107166.190210698</v>
+        <v>106212.405189196</v>
       </c>
       <c r="EI34" s="1">
         <f t="shared" si="43"/>
-        <v>108237.85211280498</v>
+        <v>107274.52924108796</v>
       </c>
       <c r="EJ34" s="1">
         <f t="shared" si="43"/>
-        <v>109320.23063393302</v>
+        <v>108347.27453349884</v>
       </c>
       <c r="EK34" s="1">
         <f t="shared" si="43"/>
-        <v>110413.43294027235</v>
+        <v>109430.74727883383</v>
       </c>
       <c r="EL34" s="1">
         <f t="shared" si="43"/>
-        <v>111517.56726967507</v>
+        <v>110525.05475162217</v>
       </c>
       <c r="EM34" s="1">
         <f t="shared" si="43"/>
-        <v>112632.74294237183</v>
+        <v>111630.30529913839</v>
       </c>
       <c r="EN34" s="1">
         <f t="shared" si="43"/>
-        <v>113759.07037179555</v>
+        <v>112746.60835212977</v>
       </c>
       <c r="EO34" s="1">
         <f t="shared" si="43"/>
-        <v>114896.6610755135</v>
+        <v>113874.07443565107</v>
       </c>
       <c r="EP34" s="1">
         <f t="shared" si="43"/>
-        <v>116045.62768626864</v>
+        <v>115012.81518000759</v>
       </c>
       <c r="EQ34" s="1">
         <f t="shared" si="43"/>
-        <v>117206.08396313133</v>
+        <v>116162.94333180766</v>
       </c>
       <c r="ER34" s="1">
         <f t="shared" si="43"/>
-        <v>118378.14480276265</v>
+        <v>117324.57276512575</v>
       </c>
       <c r="ES34" s="1">
         <f t="shared" si="43"/>
-        <v>119561.92625079027</v>
+        <v>118497.81849277701</v>
       </c>
       <c r="ET34" s="1">
         <f t="shared" si="43"/>
-        <v>120757.54551329817</v>
+        <v>119682.79667770477</v>
       </c>
       <c r="EU34" s="1">
         <f t="shared" si="43"/>
-        <v>121965.12096843116</v>
+        <v>120879.62464448182</v>
       </c>
       <c r="EV34" s="1">
         <f t="shared" si="43"/>
-        <v>123184.77217811547</v>
+        <v>122088.42089092665</v>
       </c>
       <c r="EW34" s="1">
         <f t="shared" si="43"/>
-        <v>124416.61989989663</v>
+        <v>123309.30509983591</v>
       </c>
       <c r="EX34" s="1">
         <f t="shared" si="43"/>
-        <v>125660.78609889559</v>
+        <v>124542.39815083427</v>
       </c>
       <c r="EY34" s="1">
         <f t="shared" si="43"/>
-        <v>126917.39395988455</v>
+        <v>125787.82213234261</v>
       </c>
       <c r="EZ34" s="1">
         <f t="shared" si="43"/>
-        <v>128186.56789948339</v>
+        <v>127045.70035366603</v>
       </c>
       <c r="FA34" s="1">
         <f t="shared" si="43"/>
-        <v>129468.43357847822</v>
+        <v>128316.1573572027</v>
       </c>
       <c r="FB34" s="1">
         <f t="shared" si="43"/>
-        <v>130763.117914263</v>
+        <v>129599.31893077472</v>
       </c>
       <c r="FC34" s="1">
         <f t="shared" si="43"/>
-        <v>132070.74909340564</v>
+        <v>130895.31212008247</v>
       </c>
       <c r="FD34" s="1">
         <f t="shared" si="43"/>
-        <v>133391.4565843397</v>
+        <v>132204.26524128328</v>
       </c>
       <c r="FE34" s="1">
         <f t="shared" si="43"/>
-        <v>134725.37115018308</v>
+        <v>133526.30789369612</v>
       </c>
       <c r="FF34" s="1">
         <f t="shared" si="43"/>
-        <v>136072.62486168492</v>
+        <v>134861.57097263308</v>
       </c>
       <c r="FG34" s="1">
         <f t="shared" si="43"/>
-        <v>137433.35111030177</v>
+        <v>136210.1866823594</v>
       </c>
       <c r="FH34" s="1">
         <f t="shared" si="43"/>
-        <v>138807.6846214048</v>
+        <v>137572.28854918299</v>
       </c>
       <c r="FI34" s="1">
         <f t="shared" si="43"/>
-        <v>140195.76146761884</v>
+        <v>138948.01143467482</v>
       </c>
       <c r="FJ34" s="1">
         <f t="shared" si="43"/>
-        <v>141597.71908229502</v>
+        <v>140337.49154902156</v>
       </c>
       <c r="FK34" s="1">
         <f t="shared" si="43"/>
-        <v>143013.69627311797</v>
+        <v>141740.86646451178</v>
       </c>
       <c r="FL34" s="1">
         <f t="shared" si="43"/>
-        <v>144443.83323584916</v>
+        <v>143158.27512915691</v>
       </c>
       <c r="FM34" s="1">
         <f t="shared" si="43"/>
-        <v>145888.27156820765</v>
+        <v>144589.85788044849</v>
       </c>
       <c r="FN34" s="1">
         <f t="shared" si="43"/>
-        <v>147347.15428388974</v>
+        <v>146035.75645925297</v>
       </c>
       <c r="FO34" s="1">
         <f t="shared" si="43"/>
-        <v>148820.62582672865</v>
+        <v>147496.1140238455</v>
       </c>
       <c r="FP34" s="1">
         <f t="shared" si="43"/>
-        <v>150308.83208499593</v>
+        <v>148971.07516408394</v>
       </c>
       <c r="FQ34" s="1">
         <f t="shared" ref="FQ34:IB34" si="44">+FP34*(1+$AV$36)</f>
-        <v>151811.92040584589</v>
+        <v>150460.78591572479</v>
       </c>
       <c r="FR34" s="1">
         <f t="shared" si="44"/>
-        <v>153330.03960990434</v>
+        <v>151965.39377488205</v>
       </c>
       <c r="FS34" s="1">
         <f t="shared" si="44"/>
-        <v>154863.34000600339</v>
+        <v>153485.04771263085</v>
       </c>
       <c r="FT34" s="1">
         <f t="shared" si="44"/>
-        <v>156411.97340606342</v>
+        <v>155019.89818975716</v>
       </c>
       <c r="FU34" s="1">
         <f t="shared" si="44"/>
-        <v>157976.09314012405</v>
+        <v>156570.09717165475</v>
       </c>
       <c r="FV34" s="1">
         <f t="shared" si="44"/>
-        <v>159555.8540715253</v>
+        <v>158135.7981433713</v>
       </c>
       <c r="FW34" s="1">
         <f t="shared" si="44"/>
-        <v>161151.41261224056</v>
+        <v>159717.15612480501</v>
       </c>
       <c r="FX34" s="1">
         <f t="shared" si="44"/>
-        <v>162762.92673836296</v>
+        <v>161314.32768605306</v>
       </c>
       <c r="FY34" s="1">
         <f t="shared" si="44"/>
-        <v>164390.55600574659</v>
+        <v>162927.47096291359</v>
       </c>
       <c r="FZ34" s="1">
         <f t="shared" si="44"/>
-        <v>166034.46156580406</v>
+        <v>164556.74567254272</v>
       </c>
       <c r="GA34" s="1">
         <f t="shared" si="44"/>
-        <v>167694.8061814621</v>
+        <v>166202.31312926815</v>
       </c>
       <c r="GB34" s="1">
         <f t="shared" si="44"/>
-        <v>169371.75424327672</v>
+        <v>167864.33626056084</v>
       </c>
       <c r="GC34" s="1">
         <f t="shared" si="44"/>
-        <v>171065.47178570949</v>
+        <v>169542.97962316647</v>
       </c>
       <c r="GD34" s="1">
         <f t="shared" si="44"/>
-        <v>172776.1265035666</v>
+        <v>171238.40941939814</v>
       </c>
       <c r="GE34" s="1">
         <f t="shared" si="44"/>
-        <v>174503.88776860226</v>
+        <v>172950.79351359213</v>
       </c>
       <c r="GF34" s="1">
         <f t="shared" si="44"/>
-        <v>176248.92664628828</v>
+        <v>174680.30144872805</v>
       </c>
       <c r="GG34" s="1">
         <f t="shared" si="44"/>
-        <v>178011.41591275117</v>
+        <v>176427.10446321534</v>
       </c>
       <c r="GH34" s="1">
         <f t="shared" si="44"/>
-        <v>179791.53007187869</v>
+        <v>178191.37550784749</v>
       </c>
       <c r="GI34" s="1">
         <f t="shared" si="44"/>
-        <v>181589.44537259749</v>
+        <v>179973.28926292597</v>
       </c>
       <c r="GJ34" s="1">
         <f t="shared" si="44"/>
-        <v>183405.33982632347</v>
+        <v>181773.02215555523</v>
       </c>
       <c r="GK34" s="1">
         <f t="shared" si="44"/>
-        <v>185239.3932245867</v>
+        <v>183590.7523771108</v>
       </c>
       <c r="GL34" s="1">
         <f t="shared" si="44"/>
-        <v>187091.78715683258</v>
+        <v>185426.6599008819</v>
       </c>
       <c r="GM34" s="1">
         <f t="shared" si="44"/>
-        <v>188962.7050284009</v>
+        <v>187280.92649989072</v>
       </c>
       <c r="GN34" s="1">
         <f t="shared" si="44"/>
-        <v>190852.33207868491</v>
+        <v>189153.73576488963</v>
       </c>
       <c r="GO34" s="1">
         <f t="shared" si="44"/>
-        <v>192760.85539947177</v>
+        <v>191045.27312253852</v>
       </c>
       <c r="GP34" s="1">
         <f t="shared" si="44"/>
-        <v>194688.46395346647</v>
+        <v>192955.7258537639</v>
       </c>
       <c r="GQ34" s="1">
         <f t="shared" si="44"/>
-        <v>196635.34859300114</v>
+        <v>194885.28311230155</v>
       </c>
       <c r="GR34" s="1">
         <f t="shared" si="44"/>
-        <v>198601.70207893115</v>
+        <v>196834.13594342457</v>
       </c>
       <c r="GS34" s="1">
         <f t="shared" si="44"/>
-        <v>200587.71909972047</v>
+        <v>198802.47730285881</v>
       </c>
       <c r="GT34" s="1">
         <f t="shared" si="44"/>
-        <v>202593.59629071769</v>
+        <v>200790.5020758874</v>
       </c>
       <c r="GU34" s="1">
         <f t="shared" si="44"/>
-        <v>204619.53225362487</v>
+        <v>202798.40709664629</v>
       </c>
       <c r="GV34" s="1">
         <f t="shared" si="44"/>
-        <v>206665.72757616112</v>
+        <v>204826.39116761275</v>
       </c>
       <c r="GW34" s="1">
         <f t="shared" si="44"/>
-        <v>208732.38485192275</v>
+        <v>206874.65507928887</v>
       </c>
       <c r="GX34" s="1">
         <f t="shared" si="44"/>
-        <v>210819.70870044199</v>
+        <v>208943.40163008176</v>
       </c>
       <c r="GY34" s="1">
         <f t="shared" si="44"/>
-        <v>212927.90578744642</v>
+        <v>211032.83564638259</v>
       </c>
       <c r="GZ34" s="1">
         <f t="shared" si="44"/>
-        <v>215057.18484532088</v>
+        <v>213143.16400284643</v>
       </c>
       <c r="HA34" s="1">
         <f t="shared" si="44"/>
-        <v>217207.75669377408</v>
+        <v>215274.59564287489</v>
       </c>
       <c r="HB34" s="1">
         <f t="shared" si="44"/>
-        <v>219379.83426071182</v>
+        <v>217427.34159930365</v>
       </c>
       <c r="HC34" s="1">
         <f t="shared" si="44"/>
-        <v>221573.63260331895</v>
+        <v>219601.61501529667</v>
       </c>
       <c r="HD34" s="1">
         <f t="shared" si="44"/>
-        <v>223789.36892935215</v>
+        <v>221797.63116544965</v>
       </c>
       <c r="HE34" s="1">
         <f t="shared" si="44"/>
-        <v>226027.26261864568</v>
+        <v>224015.60747710415</v>
       </c>
       <c r="HF34" s="1">
         <f t="shared" si="44"/>
-        <v>228287.53524483214</v>
+        <v>226255.76355187519</v>
       </c>
       <c r="HG34" s="1">
         <f t="shared" si="44"/>
-        <v>230570.41059728045</v>
+        <v>228518.32118739394</v>
       </c>
       <c r="HH34" s="1">
         <f t="shared" si="44"/>
-        <v>232876.11470325326</v>
+        <v>230803.5043992679</v>
       </c>
       <c r="HI34" s="1">
         <f t="shared" si="44"/>
-        <v>235204.87585028578</v>
+        <v>233111.53944326058</v>
       </c>
       <c r="HJ34" s="1">
         <f t="shared" si="44"/>
-        <v>237556.92460878863</v>
+        <v>235442.6548376932</v>
       </c>
       <c r="HK34" s="1">
         <f t="shared" si="44"/>
-        <v>239932.49385487652</v>
+        <v>237797.08138607015</v>
       </c>
       <c r="HL34" s="1">
         <f t="shared" si="44"/>
-        <v>242331.81879342528</v>
+        <v>240175.05219993085</v>
       </c>
       <c r="HM34" s="1">
         <f t="shared" si="44"/>
-        <v>244755.13698135954</v>
+        <v>242576.80272193017</v>
       </c>
       <c r="HN34" s="1">
         <f t="shared" si="44"/>
-        <v>247202.68835117313</v>
+        <v>245002.57074914948</v>
       </c>
       <c r="HO34" s="1">
         <f t="shared" si="44"/>
-        <v>249674.71523468487</v>
+        <v>247452.59645664098</v>
       </c>
       <c r="HP34" s="1">
         <f t="shared" si="44"/>
-        <v>252171.46238703173</v>
+        <v>249927.1224212074</v>
       </c>
       <c r="HQ34" s="1">
         <f t="shared" si="44"/>
-        <v>254693.17701090206</v>
+        <v>252426.39364541948</v>
       </c>
       <c r="HR34" s="1">
         <f t="shared" si="44"/>
-        <v>257240.10878101108</v>
+        <v>254950.65758187367</v>
       </c>
       <c r="HS34" s="1">
         <f t="shared" si="44"/>
-        <v>259812.50986882119</v>
+        <v>257500.1641576924</v>
       </c>
       <c r="HT34" s="1">
         <f t="shared" si="44"/>
-        <v>262410.63496750942</v>
+        <v>260075.16579926934</v>
       </c>
       <c r="HU34" s="1">
         <f t="shared" si="44"/>
-        <v>265034.74131718453</v>
+        <v>262675.91745726205</v>
       </c>
       <c r="HV34" s="1">
         <f t="shared" si="44"/>
-        <v>267685.08873035636</v>
+        <v>265302.67663183465</v>
       </c>
       <c r="HW34" s="1">
         <f t="shared" si="44"/>
-        <v>270361.93961765995</v>
+        <v>267955.70339815301</v>
       </c>
       <c r="HX34" s="1">
         <f t="shared" si="44"/>
-        <v>273065.55901383655</v>
+        <v>270635.26043213456</v>
       </c>
       <c r="HY34" s="1">
         <f t="shared" si="44"/>
-        <v>275796.21460397489</v>
+        <v>273341.61303645588</v>
       </c>
       <c r="HZ34" s="1">
         <f t="shared" si="44"/>
-        <v>278554.17675001465</v>
+        <v>276075.02916682046</v>
       </c>
       <c r="IA34" s="1">
         <f t="shared" si="44"/>
-        <v>281339.71851751482</v>
+        <v>278835.77945848869</v>
       </c>
       <c r="IB34" s="1">
         <f t="shared" si="44"/>
-        <v>284153.11570268997</v>
+        <v>281624.13725307357</v>
       </c>
       <c r="IC34" s="1">
         <f t="shared" ref="IC34:IK34" si="45">+IB34*(1+$AV$36)</f>
-        <v>286994.64685971686</v>
+        <v>284440.37862560432</v>
       </c>
       <c r="ID34" s="1">
         <f t="shared" si="45"/>
-        <v>289864.59332831402</v>
+        <v>287284.78241186036</v>
       </c>
       <c r="IE34" s="1">
         <f t="shared" si="45"/>
-        <v>292763.23926159716</v>
+        <v>290157.63023597898</v>
       </c>
       <c r="IF34" s="1">
         <f t="shared" si="45"/>
-        <v>295690.87165421312</v>
+        <v>293059.2065383388</v>
       </c>
       <c r="IG34" s="1">
         <f t="shared" si="45"/>
-        <v>298647.78037075524</v>
+        <v>295989.79860372219</v>
       </c>
       <c r="IH34" s="1">
         <f t="shared" si="45"/>
-        <v>301634.25817446277</v>
+        <v>298949.69658975943</v>
       </c>
       <c r="II34" s="1">
         <f t="shared" si="45"/>
-        <v>304650.60075620742</v>
+        <v>301939.19355565705</v>
       </c>
       <c r="IJ34" s="1">
         <f t="shared" si="45"/>
-        <v>307697.10676376952</v>
+        <v>304958.5854912136</v>
       </c>
       <c r="IK34" s="1">
         <f t="shared" si="45"/>
-        <v>310774.07783140719</v>
+        <v>308008.17134612572</v>
       </c>
     </row>
     <row r="35" spans="2:245" x14ac:dyDescent="0.2">
@@ -5715,39 +5715,39 @@
       </c>
       <c r="AJ36" s="15">
         <f>+AJ34/AJ35</f>
-        <v>29.782921475763366</v>
+        <v>29.734291998750557</v>
       </c>
       <c r="AK36" s="15">
         <f t="shared" ref="AK36:AR36" si="47">+AK34/AK35</f>
-        <v>34.432454597233239</v>
+        <v>34.327381140846548</v>
       </c>
       <c r="AL36" s="15">
         <f t="shared" si="47"/>
-        <v>39.831777159971992</v>
+        <v>39.661157498535829</v>
       </c>
       <c r="AM36" s="15">
         <f t="shared" si="47"/>
-        <v>46.104797023054523</v>
+        <v>45.858024725533518</v>
       </c>
       <c r="AN36" s="15">
         <f t="shared" si="47"/>
-        <v>53.396303786002029</v>
+        <v>53.061014717747227</v>
       </c>
       <c r="AO36" s="15">
         <f t="shared" si="47"/>
-        <v>61.875547353659556</v>
+        <v>61.437322735418249</v>
       </c>
       <c r="AP36" s="15">
         <f t="shared" si="47"/>
-        <v>71.740439098958234</v>
+        <v>71.182457564990059</v>
       </c>
       <c r="AQ36" s="15">
         <f t="shared" si="47"/>
-        <v>83.222485475468517</v>
+        <v>82.525115239040517</v>
       </c>
       <c r="AR36" s="15">
         <f t="shared" si="47"/>
-        <v>96.592583572520866</v>
+        <v>95.732904235049574</v>
       </c>
       <c r="AU36" s="5" t="s">
         <v>36</v>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="AV38" s="9">
         <f>NPV(AV37,AI34:IK34)</f>
-        <v>513035.49472201249</v>
+        <v>508930.31814919913</v>
       </c>
     </row>
     <row r="39" spans="2:245" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="AV40" s="1">
         <f>+AV38/AV39</f>
-        <v>1207.3515788122313</v>
+        <v>1197.6906655470102</v>
       </c>
     </row>
     <row r="41" spans="2:245" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6126,7 +6126,7 @@
       <c r="AU42" s="5"/>
       <c r="AV42" s="5">
         <f>+AV40/AV41-1</f>
-        <v>-4.1989749171025825E-2</v>
+        <v>-4.9655497990898634E-2</v>
       </c>
     </row>
     <row r="43" spans="2:245" ht="5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
